--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1063709.845786362</v>
+        <v>1059338.168765648</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16316604.40340592</v>
+        <v>16316604.40340591</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>41.93620706692356</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.61149757825109</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="H12" t="n">
-        <v>41.93620706692356</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="I12" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="S12" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>47.61149757825109</v>
+        <v>45.42530741892896</v>
       </c>
       <c r="H13" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="I13" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J13" t="n">
-        <v>41.93620706692356</v>
+        <v>44.12239722624556</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="T14" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="U14" t="n">
-        <v>41.93620706692356</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>41.93620706692356</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.4253074189291</v>
+        <v>45.42530741892896</v>
       </c>
       <c r="H16" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="I16" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J16" t="n">
-        <v>44.12239722624555</v>
+        <v>44.12239722624556</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.93620706692356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>41.93620706692356</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>47.61149757825109</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>41.93620706692356</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="W19" t="n">
-        <v>47.61149757825109</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.269985418920077</v>
       </c>
       <c r="D20" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>52.34403651876774</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>54.61402193768783</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.00502036522236</v>
+        <v>62.0050203652223</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.031527034561467</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>48.58249490312633</v>
       </c>
       <c r="S21" t="n">
-        <v>54.61402193768783</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="X21" t="n">
-        <v>62.00502036522236</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>54.61402193768783</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="V22" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>54.6140219376878</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,52 +2330,52 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22.26467414875853</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>52.34403651876774</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>74.60871066752627</v>
       </c>
       <c r="W23" t="n">
         <v>84.70562064887181</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>48.58249490312633</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>74.60871066752624</v>
+      </c>
+      <c r="V24" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>84.70562064887181</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>26.0262157643999</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>74.60871066752627</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>84.70562064887181</v>
-      </c>
       <c r="X25" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,23 +2552,23 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>74.60871066752625</v>
+      </c>
+      <c r="G26" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>74.60871066752624</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>84.70562064887181</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>74.60871066752625</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.58249490312633</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>84.70562064887181</v>
+        <v>26.0262157643999</v>
       </c>
       <c r="W27" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,70 +2710,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>74.60871066752624</v>
+      </c>
+      <c r="S28" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="T28" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30.48631344128069</v>
-      </c>
-      <c r="J28" t="n">
-        <v>44.12239722624556</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>74.60871066752625</v>
       </c>
       <c r="V29" t="n">
-        <v>74.60871066752624</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="W29" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,67 +2868,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>84.70562064887181</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="E30" t="n">
-        <v>26.0262157643999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>48.58249490312633</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>74.60871066752625</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.60871066752625</v>
       </c>
       <c r="C31" t="n">
         <v>84.70562064887181</v>
       </c>
       <c r="D31" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>84.70562064887181</v>
       </c>
       <c r="T31" t="n">
-        <v>74.60871066752627</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
     </row>
     <row r="32">
@@ -3032,23 +3032,23 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>84.70562064887181</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>74.60871066752625</v>
       </c>
-      <c r="E32" t="n">
+      <c r="I32" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>84.70562064887181</v>
@@ -3105,26 +3105,26 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>74.60871066752624</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>74.60871066752625</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>84.70562064887181</v>
+        <v>2.639816956170471</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30.48631344128069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>84.70562064887181</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>47.61149757825103</v>
       </c>
       <c r="T35" t="n">
-        <v>47.61149757825103</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="U35" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>41.93620706692352</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,55 +3345,55 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>47.61149757825103</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>41.93620706692352</v>
-      </c>
-      <c r="S36" t="n">
-        <v>47.61149757825103</v>
       </c>
       <c r="T36" t="n">
         <v>47.61149757825103</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3421,70 +3421,70 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.08971058181329</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>41.93620706692352</v>
+      </c>
+      <c r="U37" t="n">
         <v>47.61149757825103</v>
       </c>
-      <c r="D37" t="n">
+      <c r="V37" t="n">
         <v>47.61149757825103</v>
       </c>
-      <c r="E37" t="n">
+      <c r="W37" t="n">
         <v>47.61149757825103</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>27.84649648511021</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,55 +3509,55 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>41.93620706692352</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>47.61149757825103</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="T38" t="n">
         <v>47.61149757825103</v>
       </c>
-      <c r="H38" t="n">
-        <v>41.93620706692352</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="U38" t="n">
         <v>47.61149757825103</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>41.93620706692352</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="J40" t="n">
-        <v>41.93620706692352</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R40" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>14.08971058181329</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>41.93620706692352</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>47.61149757825103</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>41.93620706692352</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="F42" t="n">
         <v>47.61149757825103</v>
       </c>
       <c r="G42" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>47.61149757825103</v>
       </c>
       <c r="I42" t="n">
-        <v>41.93620706692352</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.93620706692352</v>
+        <v>14.08971058181329</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="S43" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>47.61149757825103</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
     </row>
     <row r="44">
@@ -3983,11 +3983,11 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>33.21797479127977</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.25839219615924</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>33.21797479127977</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>33.21797479127977</v>
       </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>29.25839219615923</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>29.25839219615922</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>33.21797479127977</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>33.21797479127977</v>
       </c>
-      <c r="T45" t="n">
+      <c r="Y45" t="n">
         <v>33.21797479127977</v>
-      </c>
-      <c r="U45" t="n">
-        <v>29.25839219615922</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>33.21797479127977</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.411895711049015</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,64 +4144,64 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>29.25839219615924</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>27.84649648511021</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>33.21797479127977</v>
       </c>
-      <c r="H46" t="n">
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>33.21797479127977</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="C11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="D11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="E11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="F11" t="n">
-        <v>142.3535685167911</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="G11" t="n">
-        <v>99.99376339868653</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="H11" t="n">
-        <v>51.90134160247331</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="I11" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J11" t="n">
-        <v>14.01286659544196</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K11" t="n">
-        <v>14.01286659544196</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L11" t="n">
-        <v>23.15739448403831</v>
+        <v>12.95344769485638</v>
       </c>
       <c r="M11" t="n">
-        <v>65.00188116609434</v>
+        <v>60.0888302973249</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1372637685629</v>
+        <v>107.2242128997934</v>
       </c>
       <c r="O11" t="n">
-        <v>143.3106077105358</v>
+        <v>138.3975568417662</v>
       </c>
       <c r="P11" t="n">
-        <v>143.3106077105358</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R11" t="n">
-        <v>190.4459903130044</v>
+        <v>142.353568516791</v>
       </c>
       <c r="S11" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="U11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="V11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="W11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="X11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="Y11" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="C12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="D12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="E12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="F12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="G12" t="n">
-        <v>94.26114672057793</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="H12" t="n">
-        <v>51.90134160247331</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="I12" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J12" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K12" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L12" t="n">
-        <v>45.20075052748049</v>
+        <v>45.20075052748044</v>
       </c>
       <c r="M12" t="n">
-        <v>92.33613312994908</v>
+        <v>92.33613312994896</v>
       </c>
       <c r="N12" t="n">
-        <v>118.9071070889392</v>
+        <v>139.4715157324175</v>
       </c>
       <c r="O12" t="n">
-        <v>166.0424896914078</v>
+        <v>186.606898334886</v>
       </c>
       <c r="P12" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R12" t="n">
-        <v>142.3535685167911</v>
+        <v>142.353568516791</v>
       </c>
       <c r="S12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="T12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="U12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="V12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="W12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="X12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="Y12" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="C13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="D13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="E13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="F13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="G13" t="n">
-        <v>142.3535685167911</v>
+        <v>144.5618414049951</v>
       </c>
       <c r="H13" t="n">
-        <v>94.26114672057793</v>
+        <v>96.46941960878191</v>
       </c>
       <c r="I13" t="n">
-        <v>46.1687249243647</v>
+        <v>48.37699781256874</v>
       </c>
       <c r="J13" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K13" t="n">
-        <v>3.808919806260087</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="L13" t="n">
-        <v>50.94430240872867</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="M13" t="n">
-        <v>98.07968501119726</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="N13" t="n">
-        <v>145.2150676136658</v>
+        <v>96.17522510806708</v>
       </c>
       <c r="O13" t="n">
-        <v>190.4459903130044</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="P13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="S13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="T13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="U13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="V13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="W13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="X13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="C14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="D14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="E14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="F14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="G14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="H14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="I14" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J14" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K14" t="n">
-        <v>14.01286659544196</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L14" t="n">
-        <v>23.15739448403831</v>
+        <v>12.95344769485638</v>
       </c>
       <c r="M14" t="n">
-        <v>65.00188116609434</v>
+        <v>54.79793437691235</v>
       </c>
       <c r="N14" t="n">
-        <v>112.1372637685629</v>
+        <v>101.9333169793809</v>
       </c>
       <c r="O14" t="n">
-        <v>143.3106077105358</v>
+        <v>133.1066609213536</v>
       </c>
       <c r="P14" t="n">
-        <v>190.4459903130044</v>
+        <v>180.2420435238222</v>
       </c>
       <c r="Q14" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R14" t="n">
-        <v>142.3535685167911</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="S14" t="n">
-        <v>94.26114672057793</v>
+        <v>142.353568516791</v>
       </c>
       <c r="T14" t="n">
-        <v>46.1687249243647</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="U14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="V14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="W14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="X14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.808919806260087</v>
+        <v>46.16872492436465</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="C15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="D15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="E15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="F15" t="n">
-        <v>148.0861851948997</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="G15" t="n">
-        <v>99.99376339868653</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="H15" t="n">
-        <v>51.90134160247331</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="I15" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J15" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K15" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L15" t="n">
-        <v>45.20075052748049</v>
+        <v>45.20075052748044</v>
       </c>
       <c r="M15" t="n">
-        <v>71.77172448647059</v>
+        <v>92.33613312994896</v>
       </c>
       <c r="N15" t="n">
-        <v>118.9071070889392</v>
+        <v>139.4715157324175</v>
       </c>
       <c r="O15" t="n">
-        <v>166.0424896914078</v>
+        <v>166.0424896914076</v>
       </c>
       <c r="P15" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R15" t="n">
-        <v>190.4459903130044</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="S15" t="n">
-        <v>190.4459903130044</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="T15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="U15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="V15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="W15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="X15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.4459903130044</v>
+        <v>51.90134160247325</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="C16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="D16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="E16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="F16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="G16" t="n">
-        <v>144.5618414049952</v>
+        <v>144.5618414049951</v>
       </c>
       <c r="H16" t="n">
-        <v>96.46941960878195</v>
+        <v>96.46941960878191</v>
       </c>
       <c r="I16" t="n">
-        <v>48.37699781256872</v>
+        <v>48.37699781256874</v>
       </c>
       <c r="J16" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K16" t="n">
-        <v>50.94430240872867</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L16" t="n">
-        <v>50.94430240872867</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="M16" t="n">
-        <v>98.07968501119726</v>
+        <v>98.07968501119714</v>
       </c>
       <c r="N16" t="n">
-        <v>145.2150676136658</v>
+        <v>98.07968501119714</v>
       </c>
       <c r="O16" t="n">
-        <v>145.2150676136658</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="P16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="S16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="T16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="U16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="V16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="W16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="X16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.99376339868653</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="C17" t="n">
-        <v>51.90134160247331</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="D17" t="n">
-        <v>3.808919806260087</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="E17" t="n">
-        <v>3.808919806260087</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="F17" t="n">
-        <v>3.808919806260087</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="G17" t="n">
-        <v>3.808919806260087</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="H17" t="n">
-        <v>3.808919806260087</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="I17" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J17" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K17" t="n">
-        <v>3.808919806260087</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="L17" t="n">
-        <v>12.95344769485644</v>
+        <v>60.0888302973249</v>
       </c>
       <c r="M17" t="n">
-        <v>60.08883029732502</v>
+        <v>107.2242128997934</v>
       </c>
       <c r="N17" t="n">
-        <v>107.2242128997936</v>
+        <v>154.359595502262</v>
       </c>
       <c r="O17" t="n">
-        <v>154.3595955022622</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="P17" t="n">
-        <v>154.3595955022622</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q17" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R17" t="n">
-        <v>190.4459903130044</v>
+        <v>142.353568516791</v>
       </c>
       <c r="S17" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="U17" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="V17" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="W17" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="X17" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.0861851948997</v>
+        <v>94.26114672057781</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="C18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="D18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="E18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="F18" t="n">
-        <v>148.0861851948997</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="G18" t="n">
-        <v>99.99376339868653</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="H18" t="n">
-        <v>51.90134160247331</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="I18" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J18" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K18" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L18" t="n">
-        <v>45.20075052748049</v>
+        <v>45.20075052748044</v>
       </c>
       <c r="M18" t="n">
-        <v>92.33613312994908</v>
+        <v>92.33613312994896</v>
       </c>
       <c r="N18" t="n">
-        <v>118.9071070889392</v>
+        <v>118.907107088939</v>
       </c>
       <c r="O18" t="n">
-        <v>166.0424896914078</v>
+        <v>166.0424896914076</v>
       </c>
       <c r="P18" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R18" t="n">
-        <v>190.4459903130044</v>
+        <v>142.353568516791</v>
       </c>
       <c r="S18" t="n">
-        <v>190.4459903130044</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="T18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="U18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="V18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="W18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="X18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.4459903130044</v>
+        <v>46.16872492436465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.90134160247331</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="C19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="D19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="E19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="F19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="G19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="H19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="I19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="K19" t="n">
-        <v>3.808919806260087</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L19" t="n">
-        <v>49.03984250559861</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="M19" t="n">
-        <v>96.1752251080672</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="N19" t="n">
-        <v>143.3106077105358</v>
+        <v>98.07968501119714</v>
       </c>
       <c r="O19" t="n">
-        <v>143.3106077105358</v>
+        <v>145.2150676136657</v>
       </c>
       <c r="P19" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="Q19" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R19" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="S19" t="n">
-        <v>190.4459903130044</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="T19" t="n">
-        <v>148.0861851948997</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="U19" t="n">
-        <v>148.0861851948997</v>
+        <v>142.353568516791</v>
       </c>
       <c r="V19" t="n">
-        <v>148.0861851948997</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="W19" t="n">
-        <v>99.99376339868653</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="X19" t="n">
-        <v>99.99376339868653</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.90134160247331</v>
+        <v>3.808919806260083</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.5917353314626</v>
+        <v>69.88464989602826</v>
       </c>
       <c r="C20" t="n">
-        <v>67.5917353314626</v>
+        <v>67.59173533146253</v>
       </c>
       <c r="D20" t="n">
-        <v>4.960401629217789</v>
+        <v>67.59173533146253</v>
       </c>
       <c r="E20" t="n">
-        <v>4.960401629217789</v>
+        <v>67.59173533146253</v>
       </c>
       <c r="F20" t="n">
-        <v>4.960401629217789</v>
+        <v>67.59173533146253</v>
       </c>
       <c r="G20" t="n">
-        <v>4.960401629217789</v>
+        <v>67.59173533146253</v>
       </c>
       <c r="H20" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="I20" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="J20" t="n">
-        <v>66.34537179078792</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="K20" t="n">
-        <v>66.34537179078792</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="L20" t="n">
-        <v>127.7303419523581</v>
+        <v>14.10492951781408</v>
       </c>
       <c r="M20" t="n">
-        <v>169.5748286344141</v>
+        <v>75.48989967938415</v>
       </c>
       <c r="N20" t="n">
-        <v>216.7102112368827</v>
+        <v>125.2501411377491</v>
       </c>
       <c r="O20" t="n">
-        <v>248.0200814608894</v>
+        <v>186.6351112993191</v>
       </c>
       <c r="P20" t="n">
-        <v>248.0200814608894</v>
+        <v>186.6351112993191</v>
       </c>
       <c r="Q20" t="n">
-        <v>248.0200814608894</v>
+        <v>248.0200814608892</v>
       </c>
       <c r="R20" t="n">
-        <v>248.0200814608894</v>
+        <v>195.1473173005178</v>
       </c>
       <c r="S20" t="n">
-        <v>248.0200814608894</v>
+        <v>195.1473173005178</v>
       </c>
       <c r="T20" t="n">
-        <v>248.0200814608894</v>
+        <v>195.1473173005178</v>
       </c>
       <c r="U20" t="n">
-        <v>192.8544027359522</v>
+        <v>195.1473173005178</v>
       </c>
       <c r="V20" t="n">
-        <v>192.8544027359522</v>
+        <v>195.1473173005178</v>
       </c>
       <c r="W20" t="n">
-        <v>192.8544027359522</v>
+        <v>132.515983598273</v>
       </c>
       <c r="X20" t="n">
-        <v>192.8544027359522</v>
+        <v>132.515983598273</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.2230690337074</v>
+        <v>69.88464989602826</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="C21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="D21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="E21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="F21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="G21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="H21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
       <c r="I21" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="J21" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="K21" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="L21" t="n">
         <v>46.35223235043814</v>
       </c>
       <c r="M21" t="n">
-        <v>107.7372025120083</v>
+        <v>107.7372025120082</v>
       </c>
       <c r="N21" t="n">
-        <v>169.1221726735784</v>
+        <v>169.1221726735783</v>
       </c>
       <c r="O21" t="n">
-        <v>223.6165808392928</v>
+        <v>223.6165808392926</v>
       </c>
       <c r="P21" t="n">
-        <v>248.0200814608894</v>
+        <v>248.0200814608892</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.0200814608894</v>
+        <v>248.0200814608892</v>
       </c>
       <c r="R21" t="n">
-        <v>248.0200814608894</v>
+        <v>198.9468542860141</v>
       </c>
       <c r="S21" t="n">
-        <v>192.8544027359522</v>
+        <v>198.9468542860141</v>
       </c>
       <c r="T21" t="n">
-        <v>130.2230690337074</v>
+        <v>198.9468542860141</v>
       </c>
       <c r="U21" t="n">
-        <v>67.5917353314626</v>
+        <v>198.9468542860141</v>
       </c>
       <c r="V21" t="n">
-        <v>67.5917353314626</v>
+        <v>198.9468542860141</v>
       </c>
       <c r="W21" t="n">
-        <v>67.5917353314626</v>
+        <v>136.3155205837694</v>
       </c>
       <c r="X21" t="n">
-        <v>4.960401629217789</v>
+        <v>73.68418688152462</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.960401629217789</v>
+        <v>11.05285317927987</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.3887477586446</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="C22" t="n">
-        <v>185.3887477586446</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="D22" t="n">
-        <v>185.3887477586446</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="E22" t="n">
-        <v>130.2230690337074</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="F22" t="n">
-        <v>130.2230690337074</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="G22" t="n">
-        <v>130.2230690337074</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="H22" t="n">
-        <v>67.5917353314626</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="I22" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="J22" t="n">
-        <v>4.960401629217789</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="K22" t="n">
-        <v>63.01565236030577</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="L22" t="n">
-        <v>124.4006225218759</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="M22" t="n">
-        <v>185.785592683446</v>
+        <v>63.86517097617899</v>
       </c>
       <c r="N22" t="n">
-        <v>247.1705628450161</v>
+        <v>125.2501411377491</v>
       </c>
       <c r="O22" t="n">
-        <v>248.0200814608894</v>
+        <v>186.6351112993191</v>
       </c>
       <c r="P22" t="n">
-        <v>248.0200814608894</v>
+        <v>248.0200814608892</v>
       </c>
       <c r="Q22" t="n">
-        <v>248.0200814608894</v>
+        <v>248.0200814608892</v>
       </c>
       <c r="R22" t="n">
-        <v>248.0200814608894</v>
+        <v>248.0200814608892</v>
       </c>
       <c r="S22" t="n">
-        <v>248.0200814608894</v>
+        <v>185.3887477586445</v>
       </c>
       <c r="T22" t="n">
-        <v>248.0200814608894</v>
+        <v>122.7574140563997</v>
       </c>
       <c r="U22" t="n">
-        <v>248.0200814608894</v>
+        <v>60.12608035415496</v>
       </c>
       <c r="V22" t="n">
-        <v>185.3887477586446</v>
+        <v>60.12608035415496</v>
       </c>
       <c r="W22" t="n">
-        <v>185.3887477586446</v>
+        <v>60.12608035415496</v>
       </c>
       <c r="X22" t="n">
-        <v>185.3887477586446</v>
+        <v>4.960401629217784</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.3887477586446</v>
+        <v>4.960401629217784</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>114.827252477799</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="C23" t="n">
-        <v>114.827252477799</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="D23" t="n">
-        <v>114.827252477799</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="E23" t="n">
-        <v>114.827252477799</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="F23" t="n">
-        <v>114.827252477799</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="G23" t="n">
-        <v>29.26601949914058</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="H23" t="n">
-        <v>29.26601949914058</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="I23" t="n">
         <v>6.776449651909745</v>
       </c>
       <c r="J23" t="n">
-        <v>90.63501409429284</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="K23" t="n">
-        <v>125.6661770380106</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="L23" t="n">
-        <v>134.8107049266069</v>
+        <v>15.92097754050604</v>
       </c>
       <c r="M23" t="n">
-        <v>176.6551916086629</v>
+        <v>87.24678926833793</v>
       </c>
       <c r="N23" t="n">
-        <v>223.7905742111314</v>
+        <v>171.105353710721</v>
       </c>
       <c r="O23" t="n">
         <v>254.9639181531041</v>
@@ -6011,28 +6011,28 @@
         <v>338.8224825954873</v>
       </c>
       <c r="R23" t="n">
-        <v>285.9497184351158</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="S23" t="n">
-        <v>285.9497184351158</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="T23" t="n">
-        <v>285.9497184351158</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="U23" t="n">
-        <v>285.9497184351158</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="V23" t="n">
-        <v>285.9497184351158</v>
+        <v>177.8989156092265</v>
       </c>
       <c r="W23" t="n">
-        <v>200.3884854564574</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="X23" t="n">
-        <v>200.3884854564574</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.827252477799</v>
+        <v>92.33768263056815</v>
       </c>
     </row>
     <row r="24">
@@ -6066,46 +6066,46 @@
         <v>6.776449651909745</v>
       </c>
       <c r="J24" t="n">
-        <v>67.01499634716919</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="K24" t="n">
-        <v>67.01499634716919</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="L24" t="n">
-        <v>108.4068270683895</v>
+        <v>48.1682803731301</v>
       </c>
       <c r="M24" t="n">
-        <v>176.0660093657933</v>
+        <v>115.8274626705339</v>
       </c>
       <c r="N24" t="n">
-        <v>259.9245738081764</v>
+        <v>199.686027112917</v>
       </c>
       <c r="O24" t="n">
-        <v>314.4189819738907</v>
+        <v>254.1804352786313</v>
       </c>
       <c r="P24" t="n">
-        <v>338.8224825954873</v>
+        <v>278.5839359002279</v>
       </c>
       <c r="Q24" t="n">
         <v>338.8224825954873</v>
       </c>
       <c r="R24" t="n">
-        <v>289.7492554206121</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="S24" t="n">
-        <v>204.1880224419537</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="T24" t="n">
-        <v>118.6267894632953</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="U24" t="n">
-        <v>33.06555648463691</v>
+        <v>263.460148587885</v>
       </c>
       <c r="V24" t="n">
-        <v>33.06555648463691</v>
+        <v>177.8989156092265</v>
       </c>
       <c r="W24" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="X24" t="n">
         <v>6.776449651909745</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.776449651909745</v>
+        <v>177.8989156092265</v>
       </c>
       <c r="C25" t="n">
-        <v>6.776449651909745</v>
+        <v>177.8989156092265</v>
       </c>
       <c r="D25" t="n">
-        <v>6.776449651909745</v>
+        <v>177.8989156092265</v>
       </c>
       <c r="E25" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="F25" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="G25" t="n">
         <v>6.776449651909745</v>
@@ -6148,16 +6148,16 @@
         <v>6.776449651909745</v>
       </c>
       <c r="K25" t="n">
-        <v>64.83170038299771</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="L25" t="n">
-        <v>148.6902648253808</v>
+        <v>90.63501409429284</v>
       </c>
       <c r="M25" t="n">
-        <v>232.5488292677639</v>
+        <v>174.493578536676</v>
       </c>
       <c r="N25" t="n">
-        <v>316.407393710147</v>
+        <v>254.9639181531041</v>
       </c>
       <c r="O25" t="n">
         <v>338.8224825954873</v>
@@ -6172,25 +6172,25 @@
         <v>338.8224825954873</v>
       </c>
       <c r="S25" t="n">
-        <v>253.2612496168288</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="T25" t="n">
         <v>253.2612496168288</v>
       </c>
       <c r="U25" t="n">
+        <v>253.2612496168288</v>
+      </c>
+      <c r="V25" t="n">
+        <v>253.2612496168288</v>
+      </c>
+      <c r="W25" t="n">
         <v>177.8989156092265</v>
       </c>
-      <c r="V25" t="n">
+      <c r="X25" t="n">
         <v>177.8989156092265</v>
       </c>
-      <c r="W25" t="n">
-        <v>92.33768263056815</v>
-      </c>
-      <c r="X25" t="n">
-        <v>6.776449651909745</v>
-      </c>
       <c r="Y25" t="n">
-        <v>6.776449651909745</v>
+        <v>177.8989156092265</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.776449651909745</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="C26" t="n">
-        <v>6.776449651909745</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="D26" t="n">
-        <v>6.776449651909745</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="E26" t="n">
-        <v>6.776449651909745</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="F26" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="G26" t="n">
         <v>6.776449651909745</v>
@@ -6227,13 +6227,13 @@
         <v>6.776449651909745</v>
       </c>
       <c r="K26" t="n">
-        <v>6.776449651909745</v>
+        <v>90.63501409429284</v>
       </c>
       <c r="L26" t="n">
-        <v>87.24678926833793</v>
+        <v>165.9840488685796</v>
       </c>
       <c r="M26" t="n">
-        <v>171.105353710721</v>
+        <v>207.8285355506356</v>
       </c>
       <c r="N26" t="n">
         <v>254.9639181531041</v>
@@ -6260,16 +6260,16 @@
         <v>338.8224825954873</v>
       </c>
       <c r="V26" t="n">
-        <v>263.460148587885</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="W26" t="n">
-        <v>177.8989156092265</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="X26" t="n">
-        <v>92.33768263056815</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.33768263056815</v>
+        <v>167.7000166381704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="C27" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="D27" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="E27" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="F27" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="G27" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="H27" t="n">
         <v>6.776449651909745</v>
@@ -6309,46 +6309,46 @@
         <v>6.776449651909745</v>
       </c>
       <c r="L27" t="n">
-        <v>90.63501409429284</v>
+        <v>48.1682803731301</v>
       </c>
       <c r="M27" t="n">
-        <v>158.2941963916966</v>
+        <v>115.8274626705339</v>
       </c>
       <c r="N27" t="n">
-        <v>242.1527608340797</v>
+        <v>199.686027112917</v>
       </c>
       <c r="O27" t="n">
-        <v>296.6471689997941</v>
+        <v>254.1804352786313</v>
       </c>
       <c r="P27" t="n">
-        <v>321.0506696213906</v>
+        <v>278.5839359002279</v>
       </c>
       <c r="Q27" t="n">
         <v>338.8224825954873</v>
       </c>
       <c r="R27" t="n">
-        <v>338.8224825954873</v>
+        <v>289.7492554206121</v>
       </c>
       <c r="S27" t="n">
-        <v>338.8224825954873</v>
+        <v>204.1880224419537</v>
       </c>
       <c r="T27" t="n">
-        <v>338.8224825954873</v>
+        <v>118.6267894632953</v>
       </c>
       <c r="U27" t="n">
-        <v>338.8224825954873</v>
+        <v>118.6267894632953</v>
       </c>
       <c r="V27" t="n">
-        <v>253.2612496168288</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="W27" t="n">
-        <v>167.7000166381704</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="X27" t="n">
-        <v>82.13878365951203</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.13878365951203</v>
+        <v>92.33768263056815</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.7000166381704</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="C28" t="n">
-        <v>167.7000166381704</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="D28" t="n">
-        <v>82.13878365951203</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="E28" t="n">
-        <v>82.13878365951203</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="F28" t="n">
-        <v>82.13878365951203</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="G28" t="n">
-        <v>82.13878365951203</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="H28" t="n">
-        <v>82.13878365951203</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="I28" t="n">
-        <v>51.3445276582184</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="J28" t="n">
         <v>6.776449651909745</v>
       </c>
       <c r="K28" t="n">
-        <v>6.776449651909745</v>
+        <v>64.83170038299771</v>
       </c>
       <c r="L28" t="n">
-        <v>90.63501409429284</v>
+        <v>148.6902648253808</v>
       </c>
       <c r="M28" t="n">
-        <v>174.493578536676</v>
+        <v>232.5488292677639</v>
       </c>
       <c r="N28" t="n">
-        <v>258.3521429790591</v>
+        <v>254.9639181531041</v>
       </c>
       <c r="O28" t="n">
         <v>338.8224825954873</v>
@@ -6406,28 +6406,28 @@
         <v>338.8224825954873</v>
       </c>
       <c r="R28" t="n">
-        <v>338.8224825954873</v>
+        <v>263.460148587885</v>
       </c>
       <c r="S28" t="n">
-        <v>338.8224825954873</v>
+        <v>177.8989156092265</v>
       </c>
       <c r="T28" t="n">
-        <v>338.8224825954873</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="U28" t="n">
-        <v>338.8224825954873</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="V28" t="n">
-        <v>338.8224825954873</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="W28" t="n">
-        <v>253.2612496168288</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="X28" t="n">
-        <v>253.2612496168288</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="Y28" t="n">
-        <v>253.2612496168288</v>
+        <v>6.776449651909745</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>6.776449651909745</v>
       </c>
       <c r="L29" t="n">
-        <v>90.63501409429284</v>
+        <v>82.12548442619654</v>
       </c>
       <c r="M29" t="n">
-        <v>174.493578536676</v>
+        <v>123.9699711082525</v>
       </c>
       <c r="N29" t="n">
-        <v>258.3521429790591</v>
+        <v>171.105353710721</v>
       </c>
       <c r="O29" t="n">
-        <v>338.8224825954873</v>
+        <v>254.9639181531041</v>
       </c>
       <c r="P29" t="n">
-        <v>338.8224825954873</v>
+        <v>254.9639181531041</v>
       </c>
       <c r="Q29" t="n">
         <v>338.8224825954873</v>
@@ -6488,22 +6488,22 @@
         <v>338.8224825954873</v>
       </c>
       <c r="S29" t="n">
-        <v>338.8224825954873</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="T29" t="n">
-        <v>338.8224825954873</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="U29" t="n">
-        <v>338.8224825954873</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="V29" t="n">
-        <v>263.460148587885</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="W29" t="n">
-        <v>177.8989156092265</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="X29" t="n">
-        <v>92.33768263056815</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="Y29" t="n">
         <v>6.776449651909745</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>204.1880224419537</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="C30" t="n">
-        <v>118.6267894632953</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="D30" t="n">
-        <v>33.06555648463691</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="E30" t="n">
         <v>6.776449651909745</v>
@@ -6540,52 +6540,52 @@
         <v>6.776449651909745</v>
       </c>
       <c r="J30" t="n">
-        <v>6.776449651909745</v>
+        <v>67.01499634716919</v>
       </c>
       <c r="K30" t="n">
-        <v>6.776449651909745</v>
+        <v>67.01499634716919</v>
       </c>
       <c r="L30" t="n">
-        <v>48.1682803731301</v>
+        <v>108.4068270683895</v>
       </c>
       <c r="M30" t="n">
-        <v>115.8274626705339</v>
+        <v>176.0660093657933</v>
       </c>
       <c r="N30" t="n">
-        <v>199.686027112917</v>
+        <v>259.9245738081764</v>
       </c>
       <c r="O30" t="n">
-        <v>254.1804352786313</v>
+        <v>314.4189819738907</v>
       </c>
       <c r="P30" t="n">
-        <v>278.5839359002279</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="Q30" t="n">
         <v>338.8224825954873</v>
       </c>
       <c r="R30" t="n">
-        <v>289.7492554206121</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="S30" t="n">
-        <v>289.7492554206121</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="T30" t="n">
-        <v>289.7492554206121</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="U30" t="n">
-        <v>289.7492554206121</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="V30" t="n">
-        <v>289.7492554206121</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="W30" t="n">
-        <v>289.7492554206121</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="X30" t="n">
-        <v>289.7492554206121</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="Y30" t="n">
-        <v>289.7492554206121</v>
+        <v>92.33768263056815</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.8989156092265</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="C31" t="n">
-        <v>92.33768263056815</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="D31" t="n">
         <v>6.776449651909745</v>
@@ -6622,13 +6622,13 @@
         <v>6.776449651909745</v>
       </c>
       <c r="K31" t="n">
-        <v>64.83170038299771</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="L31" t="n">
-        <v>148.6902648253808</v>
+        <v>90.63501409429284</v>
       </c>
       <c r="M31" t="n">
-        <v>148.6902648253808</v>
+        <v>90.63501409429284</v>
       </c>
       <c r="N31" t="n">
         <v>174.2717875336433</v>
@@ -6649,22 +6649,22 @@
         <v>253.2612496168288</v>
       </c>
       <c r="T31" t="n">
-        <v>177.8989156092265</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="U31" t="n">
-        <v>177.8989156092265</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="V31" t="n">
-        <v>177.8989156092265</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="W31" t="n">
-        <v>177.8989156092265</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="X31" t="n">
-        <v>177.8989156092265</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.8989156092265</v>
+        <v>167.7000166381704</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>253.2612496168288</v>
+      </c>
+      <c r="C32" t="n">
+        <v>253.2612496168288</v>
+      </c>
+      <c r="D32" t="n">
+        <v>253.2612496168288</v>
+      </c>
+      <c r="E32" t="n">
+        <v>253.2612496168288</v>
+      </c>
+      <c r="F32" t="n">
         <v>167.7000166381704</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>167.7000166381704</v>
       </c>
-      <c r="D32" t="n">
+      <c r="H32" t="n">
         <v>92.33768263056815</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.776449651909745</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.776449651909745</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.776449651909745</v>
-      </c>
-      <c r="H32" t="n">
-        <v>6.776449651909745</v>
       </c>
       <c r="I32" t="n">
         <v>6.776449651909745</v>
       </c>
       <c r="J32" t="n">
-        <v>41.80761259562749</v>
+        <v>90.63501409429284</v>
       </c>
       <c r="K32" t="n">
-        <v>41.80761259562749</v>
+        <v>174.493578536676</v>
       </c>
       <c r="L32" t="n">
-        <v>50.95214048422379</v>
+        <v>183.6381064252722</v>
       </c>
       <c r="M32" t="n">
-        <v>92.79662716627976</v>
+        <v>225.4825931073282</v>
       </c>
       <c r="N32" t="n">
-        <v>139.9320097687483</v>
+        <v>272.6179757097967</v>
       </c>
       <c r="O32" t="n">
-        <v>171.105353710721</v>
+        <v>303.7913196517695</v>
       </c>
       <c r="P32" t="n">
-        <v>254.9639181531041</v>
+        <v>338.8224825954873</v>
       </c>
       <c r="Q32" t="n">
         <v>338.8224825954873</v>
@@ -6725,25 +6725,25 @@
         <v>338.8224825954873</v>
       </c>
       <c r="S32" t="n">
+        <v>338.8224825954873</v>
+      </c>
+      <c r="T32" t="n">
         <v>253.2612496168288</v>
       </c>
-      <c r="T32" t="n">
-        <v>167.7000166381704</v>
-      </c>
       <c r="U32" t="n">
-        <v>167.7000166381704</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="V32" t="n">
-        <v>167.7000166381704</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="W32" t="n">
-        <v>167.7000166381704</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="X32" t="n">
-        <v>167.7000166381704</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.7000166381704</v>
+        <v>253.2612496168288</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="C33" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="D33" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="E33" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="F33" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="G33" t="n">
-        <v>6.776449651909745</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="H33" t="n">
         <v>6.776449651909745</v>
@@ -6777,22 +6777,22 @@
         <v>6.776449651909745</v>
       </c>
       <c r="J33" t="n">
-        <v>67.01499634716919</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="K33" t="n">
-        <v>67.01499634716919</v>
+        <v>6.776449651909745</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4068270683895</v>
+        <v>48.1682803731301</v>
       </c>
       <c r="M33" t="n">
-        <v>176.0660093657933</v>
+        <v>115.8274626705339</v>
       </c>
       <c r="N33" t="n">
-        <v>259.9245738081764</v>
+        <v>199.686027112917</v>
       </c>
       <c r="O33" t="n">
-        <v>314.4189819738907</v>
+        <v>283.5445915553001</v>
       </c>
       <c r="P33" t="n">
         <v>338.8224825954873</v>
@@ -6804,22 +6804,22 @@
         <v>338.8224825954873</v>
       </c>
       <c r="S33" t="n">
-        <v>263.460148587885</v>
+        <v>253.2612496168288</v>
       </c>
       <c r="T33" t="n">
-        <v>263.460148587885</v>
+        <v>167.7000166381704</v>
       </c>
       <c r="U33" t="n">
-        <v>263.460148587885</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="V33" t="n">
-        <v>263.460148587885</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="W33" t="n">
-        <v>263.460148587885</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="X33" t="n">
-        <v>177.8989156092265</v>
+        <v>92.33768263056815</v>
       </c>
       <c r="Y33" t="n">
         <v>92.33768263056815</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.7000166381704</v>
+        <v>139.5722424107864</v>
       </c>
       <c r="C34" t="n">
-        <v>167.7000166381704</v>
+        <v>54.01100943212796</v>
       </c>
       <c r="D34" t="n">
-        <v>167.7000166381704</v>
+        <v>54.01100943212796</v>
       </c>
       <c r="E34" t="n">
-        <v>82.13878365951203</v>
+        <v>51.3445276582184</v>
       </c>
       <c r="F34" t="n">
-        <v>82.13878365951203</v>
+        <v>51.3445276582184</v>
       </c>
       <c r="G34" t="n">
         <v>51.3445276582184</v>
@@ -6865,10 +6865,10 @@
         <v>90.63501409429284</v>
       </c>
       <c r="M34" t="n">
-        <v>174.493578536676</v>
+        <v>90.63501409429284</v>
       </c>
       <c r="N34" t="n">
-        <v>258.1303519760264</v>
+        <v>174.2717875336433</v>
       </c>
       <c r="O34" t="n">
         <v>258.1303519760264</v>
@@ -6877,31 +6877,31 @@
         <v>338.8224825954873</v>
       </c>
       <c r="Q34" t="n">
-        <v>338.8224825954873</v>
+        <v>310.6947083681032</v>
       </c>
       <c r="R34" t="n">
-        <v>338.8224825954873</v>
+        <v>310.6947083681032</v>
       </c>
       <c r="S34" t="n">
-        <v>338.8224825954873</v>
+        <v>310.6947083681032</v>
       </c>
       <c r="T34" t="n">
-        <v>338.8224825954873</v>
+        <v>310.6947083681032</v>
       </c>
       <c r="U34" t="n">
-        <v>253.2612496168288</v>
+        <v>310.6947083681032</v>
       </c>
       <c r="V34" t="n">
-        <v>167.7000166381704</v>
+        <v>225.1334753894448</v>
       </c>
       <c r="W34" t="n">
-        <v>167.7000166381704</v>
+        <v>225.1334753894448</v>
       </c>
       <c r="X34" t="n">
-        <v>167.7000166381704</v>
+        <v>225.1334753894448</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.7000166381704</v>
+        <v>225.1334753894448</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="C35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="D35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="E35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="F35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="G35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="H35" t="n">
-        <v>3.808919806260083</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="I35" t="n">
         <v>3.808919806260083</v>
@@ -6938,10 +6938,10 @@
         <v>50.94430240872861</v>
       </c>
       <c r="K35" t="n">
-        <v>50.94430240872861</v>
+        <v>61.14824919791059</v>
       </c>
       <c r="L35" t="n">
-        <v>65.00188116609434</v>
+        <v>70.29277708650689</v>
       </c>
       <c r="M35" t="n">
         <v>112.1372637685629</v>
@@ -6965,22 +6965,22 @@
         <v>142.353568516791</v>
       </c>
       <c r="T35" t="n">
-        <v>94.26114672057781</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="U35" t="n">
-        <v>46.16872492436465</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="V35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="W35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="X35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="C36" t="n">
         <v>3.808919806260083</v>
@@ -7038,7 +7038,7 @@
         <v>190.4459903130041</v>
       </c>
       <c r="R36" t="n">
-        <v>148.0861851948996</v>
+        <v>142.353568516791</v>
       </c>
       <c r="S36" t="n">
         <v>99.99376339868641</v>
@@ -7050,16 +7050,16 @@
         <v>51.90134160247325</v>
       </c>
       <c r="V36" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="W36" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="X36" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="Y36" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.0861851948996</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="C37" t="n">
-        <v>99.99376339868641</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="D37" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="E37" t="n">
         <v>3.808919806260083</v>
@@ -7096,16 +7096,16 @@
         <v>3.808919806260083</v>
       </c>
       <c r="K37" t="n">
-        <v>3.808919806260083</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="L37" t="n">
-        <v>3.808919806260083</v>
+        <v>98.07968501119714</v>
       </c>
       <c r="M37" t="n">
-        <v>49.03984250559856</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="N37" t="n">
-        <v>96.17522510806708</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="O37" t="n">
         <v>143.3106077105356</v>
@@ -7114,31 +7114,31 @@
         <v>190.4459903130041</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.3182160856201</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="R37" t="n">
-        <v>162.3182160856201</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="S37" t="n">
-        <v>162.3182160856201</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="T37" t="n">
-        <v>162.3182160856201</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="U37" t="n">
-        <v>162.3182160856201</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="V37" t="n">
-        <v>162.3182160856201</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="W37" t="n">
-        <v>162.3182160856201</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="X37" t="n">
-        <v>162.3182160856201</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.3182160856201</v>
+        <v>3.808919806260083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="C38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="D38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="E38" t="n">
-        <v>142.353568516791</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="F38" t="n">
-        <v>142.353568516791</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="G38" t="n">
-        <v>94.26114672057781</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="H38" t="n">
-        <v>51.90134160247325</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="I38" t="n">
         <v>3.808919806260083</v>
@@ -7199,25 +7199,25 @@
         <v>190.4459903130041</v>
       </c>
       <c r="S38" t="n">
-        <v>190.4459903130041</v>
+        <v>142.353568516791</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4459903130041</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="U38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="V38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="W38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="X38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="Y38" t="n">
-        <v>190.4459903130041</v>
+        <v>46.16872492436465</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="C39" t="n">
-        <v>3.808919806260083</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="D39" t="n">
-        <v>3.808919806260083</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="E39" t="n">
         <v>3.808919806260083</v>
@@ -7275,28 +7275,28 @@
         <v>190.4459903130041</v>
       </c>
       <c r="R39" t="n">
-        <v>190.4459903130041</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="S39" t="n">
-        <v>190.4459903130041</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="T39" t="n">
-        <v>190.4459903130041</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="U39" t="n">
-        <v>190.4459903130041</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="V39" t="n">
-        <v>148.0861851948996</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="W39" t="n">
         <v>99.99376339868641</v>
       </c>
       <c r="X39" t="n">
-        <v>51.90134160247325</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.808919806260083</v>
+        <v>99.99376339868641</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.16872492436465</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="C40" t="n">
-        <v>46.16872492436465</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="D40" t="n">
-        <v>46.16872492436465</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="E40" t="n">
-        <v>46.16872492436465</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="F40" t="n">
-        <v>46.16872492436465</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="G40" t="n">
-        <v>46.16872492436465</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="H40" t="n">
-        <v>46.16872492436465</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="I40" t="n">
-        <v>46.16872492436465</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="J40" t="n">
         <v>3.808919806260083</v>
       </c>
       <c r="K40" t="n">
-        <v>3.808919806260083</v>
+        <v>50.94430240872861</v>
       </c>
       <c r="L40" t="n">
-        <v>3.808919806260083</v>
+        <v>98.07968501119714</v>
       </c>
       <c r="M40" t="n">
-        <v>49.03984250559856</v>
+        <v>145.2150676136657</v>
       </c>
       <c r="N40" t="n">
-        <v>96.17522510806708</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="O40" t="n">
-        <v>143.3106077105356</v>
+        <v>190.4459903130041</v>
       </c>
       <c r="P40" t="n">
         <v>190.4459903130041</v>
       </c>
       <c r="Q40" t="n">
-        <v>190.4459903130041</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="R40" t="n">
-        <v>142.353568516791</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="S40" t="n">
-        <v>94.26114672057781</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="T40" t="n">
-        <v>94.26114672057781</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="U40" t="n">
-        <v>94.26114672057781</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="V40" t="n">
-        <v>94.26114672057781</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="W40" t="n">
-        <v>94.26114672057781</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="X40" t="n">
-        <v>94.26114672057781</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.16872492436465</v>
+        <v>148.0861851948996</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>142.353568516791</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="C41" t="n">
-        <v>142.353568516791</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="D41" t="n">
-        <v>142.353568516791</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="E41" t="n">
-        <v>99.99376339868641</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="F41" t="n">
-        <v>51.90134160247325</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="G41" t="n">
         <v>3.808919806260083</v>
@@ -7412,22 +7412,22 @@
         <v>3.808919806260083</v>
       </c>
       <c r="K41" t="n">
-        <v>50.94430240872861</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="L41" t="n">
-        <v>60.0888302973249</v>
+        <v>12.95344769485638</v>
       </c>
       <c r="M41" t="n">
+        <v>54.79793437691235</v>
+      </c>
+      <c r="N41" t="n">
         <v>101.9333169793809</v>
       </c>
-      <c r="N41" t="n">
-        <v>149.0686995818494</v>
-      </c>
       <c r="O41" t="n">
-        <v>180.2420435238221</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="P41" t="n">
-        <v>190.4459903130041</v>
+        <v>143.3106077105356</v>
       </c>
       <c r="Q41" t="n">
         <v>190.4459903130041</v>
@@ -7448,13 +7448,13 @@
         <v>142.353568516791</v>
       </c>
       <c r="W41" t="n">
-        <v>142.353568516791</v>
+        <v>94.26114672057781</v>
       </c>
       <c r="X41" t="n">
-        <v>142.353568516791</v>
+        <v>46.16872492436465</v>
       </c>
       <c r="Y41" t="n">
-        <v>142.353568516791</v>
+        <v>3.808919806260083</v>
       </c>
     </row>
     <row r="42">
@@ -7470,19 +7470,19 @@
         <v>190.4459903130041</v>
       </c>
       <c r="D42" t="n">
-        <v>190.4459903130041</v>
+        <v>148.0861851948996</v>
       </c>
       <c r="E42" t="n">
-        <v>190.4459903130041</v>
+        <v>99.99376339868641</v>
       </c>
       <c r="F42" t="n">
-        <v>142.353568516791</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="G42" t="n">
-        <v>94.26114672057781</v>
+        <v>51.90134160247325</v>
       </c>
       <c r="H42" t="n">
-        <v>46.16872492436465</v>
+        <v>3.808919806260083</v>
       </c>
       <c r="I42" t="n">
         <v>3.808919806260083</v>
@@ -7573,46 +7573,46 @@
         <v>49.03984250559856</v>
       </c>
       <c r="L43" t="n">
+        <v>49.03984250559856</v>
+      </c>
+      <c r="M43" t="n">
+        <v>49.03984250559856</v>
+      </c>
+      <c r="N43" t="n">
         <v>96.17522510806708</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>143.3106077105356</v>
-      </c>
-      <c r="N43" t="n">
-        <v>190.4459903130041</v>
-      </c>
-      <c r="O43" t="n">
-        <v>190.4459903130041</v>
       </c>
       <c r="P43" t="n">
         <v>190.4459903130041</v>
       </c>
       <c r="Q43" t="n">
-        <v>190.4459903130041</v>
+        <v>162.3182160856201</v>
       </c>
       <c r="R43" t="n">
-        <v>190.4459903130041</v>
+        <v>114.2257942894069</v>
       </c>
       <c r="S43" t="n">
-        <v>142.353568516791</v>
+        <v>114.2257942894069</v>
       </c>
       <c r="T43" t="n">
-        <v>142.353568516791</v>
+        <v>114.2257942894069</v>
       </c>
       <c r="U43" t="n">
-        <v>142.353568516791</v>
+        <v>114.2257942894069</v>
       </c>
       <c r="V43" t="n">
-        <v>142.353568516791</v>
+        <v>114.2257942894069</v>
       </c>
       <c r="W43" t="n">
-        <v>94.26114672057781</v>
+        <v>114.2257942894069</v>
       </c>
       <c r="X43" t="n">
-        <v>46.16872492436465</v>
+        <v>66.13337249319375</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.16872492436465</v>
+        <v>18.04095069698058</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>36.21094787348397</v>
       </c>
       <c r="E44" t="n">
-        <v>2.657437983302382</v>
+        <v>36.21094787348397</v>
       </c>
       <c r="F44" t="n">
         <v>2.657437983302382</v>
@@ -7652,16 +7652,16 @@
         <v>2.657437983302382</v>
       </c>
       <c r="L44" t="n">
-        <v>11.80196587189868</v>
+        <v>34.21451403501815</v>
       </c>
       <c r="M44" t="n">
-        <v>44.68776091526566</v>
+        <v>67.10030907838512</v>
       </c>
       <c r="N44" t="n">
-        <v>77.57355595863262</v>
+        <v>99.98610412175211</v>
       </c>
       <c r="O44" t="n">
-        <v>110.4593510019996</v>
+        <v>132.8718991651191</v>
       </c>
       <c r="P44" t="n">
         <v>132.8718991651191</v>
@@ -7673,22 +7673,22 @@
         <v>132.8718991651191</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3179676538471</v>
+        <v>132.8718991651191</v>
       </c>
       <c r="T44" t="n">
-        <v>103.3179676538471</v>
+        <v>132.8718991651191</v>
       </c>
       <c r="U44" t="n">
-        <v>69.76445776366555</v>
+        <v>99.3183892749375</v>
       </c>
       <c r="V44" t="n">
-        <v>36.21094787348397</v>
+        <v>99.3183892749375</v>
       </c>
       <c r="W44" t="n">
-        <v>36.21094787348397</v>
+        <v>65.76487938475591</v>
       </c>
       <c r="X44" t="n">
-        <v>36.21094787348397</v>
+        <v>65.76487938475591</v>
       </c>
       <c r="Y44" t="n">
         <v>36.21094787348397</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.657437983302382</v>
+        <v>32.21136949457433</v>
       </c>
       <c r="C45" t="n">
-        <v>2.657437983302382</v>
+        <v>32.21136949457433</v>
       </c>
       <c r="D45" t="n">
-        <v>2.657437983302382</v>
+        <v>32.21136949457433</v>
       </c>
       <c r="E45" t="n">
-        <v>2.657437983302382</v>
+        <v>32.21136949457433</v>
       </c>
       <c r="F45" t="n">
-        <v>2.657437983302382</v>
+        <v>32.21136949457433</v>
       </c>
       <c r="G45" t="n">
         <v>2.657437983302382</v>
@@ -7731,13 +7731,13 @@
         <v>2.657437983302382</v>
       </c>
       <c r="L45" t="n">
-        <v>35.54323302666936</v>
+        <v>9.811013413421577</v>
       </c>
       <c r="M45" t="n">
-        <v>68.42902807003634</v>
+        <v>42.69680845678855</v>
       </c>
       <c r="N45" t="n">
-        <v>101.3148231134033</v>
+        <v>75.58260350015553</v>
       </c>
       <c r="O45" t="n">
         <v>108.4683985435225</v>
@@ -7752,25 +7752,25 @@
         <v>99.3183892749375</v>
       </c>
       <c r="S45" t="n">
+        <v>99.3183892749375</v>
+      </c>
+      <c r="T45" t="n">
+        <v>99.3183892749375</v>
+      </c>
+      <c r="U45" t="n">
+        <v>99.3183892749375</v>
+      </c>
+      <c r="V45" t="n">
+        <v>99.3183892749375</v>
+      </c>
+      <c r="W45" t="n">
+        <v>99.3183892749375</v>
+      </c>
+      <c r="X45" t="n">
         <v>65.76487938475591</v>
       </c>
-      <c r="T45" t="n">
+      <c r="Y45" t="n">
         <v>32.21136949457433</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.657437983302382</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.657437983302382</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2.657437983302382</v>
-      </c>
-      <c r="X45" t="n">
-        <v>2.657437983302382</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>2.657437983302382</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.3183892749375</v>
+        <v>4.083595267190276</v>
       </c>
       <c r="C46" t="n">
-        <v>99.3183892749375</v>
+        <v>2.657437983302382</v>
       </c>
       <c r="D46" t="n">
-        <v>99.3183892749375</v>
+        <v>2.657437983302382</v>
       </c>
       <c r="E46" t="n">
-        <v>99.3183892749375</v>
+        <v>2.657437983302382</v>
       </c>
       <c r="F46" t="n">
-        <v>69.76445776366555</v>
+        <v>2.657437983302382</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21094787348397</v>
+        <v>2.657437983302382</v>
       </c>
       <c r="H46" t="n">
         <v>2.657437983302382</v>
@@ -7825,31 +7825,31 @@
         <v>132.8718991651191</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.8718991651191</v>
+        <v>104.744124937735</v>
       </c>
       <c r="R46" t="n">
-        <v>132.8718991651191</v>
+        <v>104.744124937735</v>
       </c>
       <c r="S46" t="n">
-        <v>132.8718991651191</v>
+        <v>104.744124937735</v>
       </c>
       <c r="T46" t="n">
-        <v>132.8718991651191</v>
+        <v>104.744124937735</v>
       </c>
       <c r="U46" t="n">
-        <v>132.8718991651191</v>
+        <v>71.19061504755345</v>
       </c>
       <c r="V46" t="n">
-        <v>132.8718991651191</v>
+        <v>71.19061504755345</v>
       </c>
       <c r="W46" t="n">
-        <v>132.8718991651191</v>
+        <v>71.19061504755345</v>
       </c>
       <c r="X46" t="n">
-        <v>132.8718991651191</v>
+        <v>71.19061504755345</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.8718991651191</v>
+        <v>37.63710515737186</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>59.58256939705689</v>
+        <v>49.27555243828735</v>
       </c>
       <c r="K11" t="n">
-        <v>22.6002512044565</v>
+        <v>22.60025120445655</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>5.344339313548033</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7.975023257861551</v>
+        <v>12.93770090308328</v>
       </c>
       <c r="Q11" t="n">
         <v>102.2597479135487</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>48.35610768009975</v>
+        <v>48.35610768009978</v>
       </c>
       <c r="K12" t="n">
-        <v>3.704022673888517</v>
+        <v>3.704022673888545</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.94555809860013</v>
+        <v>33.94555809860017</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>48.10209893951316</v>
+        <v>95.7135965177642</v>
       </c>
       <c r="L13" t="n">
-        <v>78.95774678091833</v>
+        <v>31.34624920266727</v>
       </c>
       <c r="M13" t="n">
-        <v>77.37052733019758</v>
+        <v>29.75902975194653</v>
       </c>
       <c r="N13" t="n">
-        <v>68.72602926290537</v>
+        <v>66.80233239105681</v>
       </c>
       <c r="O13" t="n">
-        <v>85.70875983712372</v>
+        <v>87.63245670897223</v>
       </c>
       <c r="P13" t="n">
-        <v>53.49936066812104</v>
+        <v>101.1108582463721</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.27555243828732</v>
+        <v>49.27555243828735</v>
       </c>
       <c r="K14" t="n">
-        <v>32.90726816322606</v>
+        <v>22.60025120445655</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>55.58652083611264</v>
+        <v>55.58652083611267</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.6482503352976</v>
+        <v>64.95526729406733</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>48.35610768009975</v>
+        <v>48.35610768009978</v>
       </c>
       <c r="K15" t="n">
-        <v>3.704022673888517</v>
+        <v>3.704022673888545</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.94555809860013</v>
+        <v>33.94555809860017</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>95.71359651776424</v>
+        <v>48.10209893951317</v>
       </c>
       <c r="L16" t="n">
-        <v>31.34624920266724</v>
+        <v>78.9577467809183</v>
       </c>
       <c r="M16" t="n">
-        <v>77.37052733019758</v>
+        <v>77.37052733019756</v>
       </c>
       <c r="N16" t="n">
-        <v>68.72602926290537</v>
+        <v>21.11453168465431</v>
       </c>
       <c r="O16" t="n">
-        <v>40.02095913072117</v>
+        <v>85.70875983712369</v>
       </c>
       <c r="P16" t="n">
-        <v>99.18716137452358</v>
+        <v>101.1108582463721</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>49.27555243828732</v>
+        <v>49.27555243828735</v>
       </c>
       <c r="K17" t="n">
-        <v>22.6002512044565</v>
+        <v>70.21174878270759</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16.1232713742381</v>
+        <v>4.962677645221646</v>
       </c>
       <c r="P17" t="n">
-        <v>7.975023257861551</v>
+        <v>7.975023257861636</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.09915418453213</v>
+        <v>54.64825033529766</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>48.35610768009975</v>
+        <v>48.35610768009978</v>
       </c>
       <c r="K18" t="n">
-        <v>3.704022673888517</v>
+        <v>3.704022673888545</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.94555809860013</v>
+        <v>33.94555809860017</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>48.10209893951316</v>
+        <v>48.10209893951317</v>
       </c>
       <c r="L19" t="n">
-        <v>77.03404990906979</v>
+        <v>31.34624920266727</v>
       </c>
       <c r="M19" t="n">
-        <v>77.37052733019758</v>
+        <v>77.37052733019756</v>
       </c>
       <c r="N19" t="n">
-        <v>68.72602926290537</v>
+        <v>68.72602926290534</v>
       </c>
       <c r="O19" t="n">
-        <v>40.02095913072117</v>
+        <v>87.63245670897223</v>
       </c>
       <c r="P19" t="n">
-        <v>101.1108582463721</v>
+        <v>99.18716137452355</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2805728035097</v>
+        <v>49.27555243828735</v>
       </c>
       <c r="K20" t="n">
-        <v>22.6002512044565</v>
+        <v>22.60025120445655</v>
       </c>
       <c r="L20" t="n">
-        <v>52.76812350805432</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>19.7378621005193</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.651372581713531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1379053353877921</v>
+        <v>30.51679416120942</v>
       </c>
       <c r="P20" t="n">
-        <v>7.975023257861551</v>
+        <v>7.975023257861636</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.6482503352976</v>
+        <v>116.65327070052</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>48.35610768009975</v>
+        <v>48.35610768009978</v>
       </c>
       <c r="K21" t="n">
-        <v>3.704022673888517</v>
+        <v>3.704022673888545</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.94555809860013</v>
+        <v>33.94555809860017</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>48.10209893951317</v>
       </c>
       <c r="L22" t="n">
-        <v>93.3512695678896</v>
+        <v>31.34624920266727</v>
       </c>
       <c r="M22" t="n">
-        <v>91.76405011716884</v>
+        <v>89.25879676907905</v>
       </c>
       <c r="N22" t="n">
-        <v>83.11955204987663</v>
+        <v>83.1195520498766</v>
       </c>
       <c r="O22" t="n">
-        <v>40.87905874271438</v>
+        <v>102.0259794959435</v>
       </c>
       <c r="P22" t="n">
-        <v>53.49936066812104</v>
+        <v>115.5043810333434</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>133.9811730871592</v>
+        <v>49.27555243828735</v>
       </c>
       <c r="K23" t="n">
-        <v>57.98526427891893</v>
+        <v>22.60025120445655</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>29.77911620785447</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>37.09412307062081</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>53.21739444485894</v>
       </c>
       <c r="P23" t="n">
         <v>7.975023257861636</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>109.2031245439982</v>
+        <v>48.35610768009978</v>
       </c>
       <c r="K24" t="n">
         <v>3.704022673888545</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.94555809860017</v>
+        <v>94.79257496249856</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,7 +9796,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>48.10209893951317</v>
       </c>
       <c r="L25" t="n">
         <v>116.0518698515391</v>
@@ -9805,10 +9805,10 @@
         <v>114.4646504008183</v>
       </c>
       <c r="N25" t="n">
-        <v>105.8201523335261</v>
+        <v>102.3977030143798</v>
       </c>
       <c r="O25" t="n">
-        <v>62.66246305530731</v>
+        <v>124.726579779593</v>
       </c>
       <c r="P25" t="n">
         <v>53.49936066812107</v>
@@ -9875,16 +9875,16 @@
         <v>49.27555243828735</v>
       </c>
       <c r="K26" t="n">
-        <v>22.60025120445655</v>
+        <v>107.3058718533284</v>
       </c>
       <c r="L26" t="n">
-        <v>72.04627447255747</v>
+        <v>66.87323927847525</v>
       </c>
       <c r="M26" t="n">
-        <v>42.43846238416882</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>37.09412307062081</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>53.21739444485894</v>
@@ -9957,7 +9957,7 @@
         <v>3.704022673888545</v>
       </c>
       <c r="L27" t="n">
-        <v>42.89569062743712</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.89688433506142</v>
+        <v>94.79257496249856</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>48.10209893951317</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>116.0518698515391</v>
@@ -10042,10 +10042,10 @@
         <v>114.4646504008183</v>
       </c>
       <c r="N28" t="n">
-        <v>105.8201523335261</v>
+        <v>43.75603560924043</v>
       </c>
       <c r="O28" t="n">
-        <v>121.3041304604466</v>
+        <v>124.726579779593</v>
       </c>
       <c r="P28" t="n">
         <v>53.49936066812107</v>
@@ -10115,22 +10115,22 @@
         <v>22.60025120445655</v>
       </c>
       <c r="L29" t="n">
-        <v>75.46872379170384</v>
+        <v>66.87323927847525</v>
       </c>
       <c r="M29" t="n">
-        <v>42.43846238416882</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>37.09412307062078</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>49.79494512571257</v>
+        <v>53.21739444485894</v>
       </c>
       <c r="P29" t="n">
         <v>7.975023257861636</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.64825033529766</v>
+        <v>139.3538709841695</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>48.35610768009978</v>
+        <v>109.2031245439982</v>
       </c>
       <c r="K30" t="n">
         <v>3.704022673888545</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.79257496249856</v>
+        <v>33.94555809860017</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>48.10209893951317</v>
       </c>
       <c r="L31" t="n">
         <v>116.0518698515391</v>
@@ -10279,7 +10279,7 @@
         <v>29.75902975194653</v>
       </c>
       <c r="N31" t="n">
-        <v>46.95445361219218</v>
+        <v>105.5961210173315</v>
       </c>
       <c r="O31" t="n">
         <v>124.726579779593</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>84.66056551274971</v>
+        <v>133.9811730871592</v>
       </c>
       <c r="K32" t="n">
-        <v>22.60025120445655</v>
+        <v>107.3058718533284</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>92.68064390673348</v>
+        <v>43.36003633232405</v>
       </c>
       <c r="Q32" t="n">
-        <v>139.3538709841695</v>
+        <v>54.64825033529766</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>109.2031245439982</v>
+        <v>48.35610768009978</v>
       </c>
       <c r="K33" t="n">
         <v>3.704022673888545</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>29.66076391582706</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>31.18625294807131</v>
       </c>
       <c r="Q33" t="n">
         <v>33.94555809860017</v>
@@ -10513,13 +10513,13 @@
         <v>116.0518698515391</v>
       </c>
       <c r="M34" t="n">
-        <v>114.4646504008183</v>
+        <v>29.75902975194653</v>
       </c>
       <c r="N34" t="n">
         <v>105.5961210173315</v>
       </c>
       <c r="O34" t="n">
-        <v>40.0209591307212</v>
+        <v>124.726579779593</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10586,13 +10586,13 @@
         <v>96.88705001653838</v>
       </c>
       <c r="K35" t="n">
-        <v>22.60025120445655</v>
+        <v>32.90726816322623</v>
       </c>
       <c r="L35" t="n">
-        <v>4.962677645221644</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.344339313548005</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10744,19 +10744,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>48.10209893951317</v>
+        <v>95.7135965177642</v>
       </c>
       <c r="L37" t="n">
-        <v>31.34624920266727</v>
+        <v>78.9577467809183</v>
       </c>
       <c r="M37" t="n">
-        <v>75.44683045834903</v>
+        <v>75.44683045834901</v>
       </c>
       <c r="N37" t="n">
-        <v>68.72602926290534</v>
+        <v>21.11453168465431</v>
       </c>
       <c r="O37" t="n">
-        <v>87.63245670897223</v>
+        <v>40.0209591307212</v>
       </c>
       <c r="P37" t="n">
         <v>101.1108582463721</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>48.10209893951317</v>
+        <v>95.7135965177642</v>
       </c>
       <c r="L40" t="n">
-        <v>31.34624920266727</v>
+        <v>78.9577467809183</v>
       </c>
       <c r="M40" t="n">
-        <v>75.44683045834903</v>
+        <v>77.37052733019756</v>
       </c>
       <c r="N40" t="n">
-        <v>68.72602926290534</v>
+        <v>66.80233239105681</v>
       </c>
       <c r="O40" t="n">
-        <v>87.63245670897223</v>
+        <v>40.0209591307212</v>
       </c>
       <c r="P40" t="n">
-        <v>101.1108582463721</v>
+        <v>53.49936066812107</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11060,7 +11060,7 @@
         <v>49.27555243828735</v>
       </c>
       <c r="K41" t="n">
-        <v>70.21174878270759</v>
+        <v>22.60025120445655</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>10.30701695876968</v>
       </c>
       <c r="P41" t="n">
-        <v>18.28204021663133</v>
+        <v>7.975023257861636</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.64825033529766</v>
+        <v>102.2597479135487</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11221,19 +11221,19 @@
         <v>93.78989964591567</v>
       </c>
       <c r="L43" t="n">
-        <v>78.9577467809183</v>
+        <v>31.34624920266727</v>
       </c>
       <c r="M43" t="n">
-        <v>77.37052733019756</v>
+        <v>29.75902975194653</v>
       </c>
       <c r="N43" t="n">
         <v>68.72602926290534</v>
       </c>
       <c r="O43" t="n">
-        <v>40.0209591307212</v>
+        <v>87.63245670897223</v>
       </c>
       <c r="P43" t="n">
-        <v>53.49936066812107</v>
+        <v>101.1108582463721</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11300,7 +11300,7 @@
         <v>22.60025120445655</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>22.63893753850451</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>1.729748587266897</v>
       </c>
       <c r="P44" t="n">
-        <v>30.61396079636616</v>
+        <v>7.975023257861636</v>
       </c>
       <c r="Q44" t="n">
         <v>54.64825033529766</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>359.2645481634603</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.8139850252933</v>
+        <v>413.7501920922169</v>
       </c>
       <c r="H11" t="n">
-        <v>275.9632987250556</v>
+        <v>323.5747963033067</v>
       </c>
       <c r="I11" t="n">
-        <v>103.009884575103</v>
+        <v>108.6851750864306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.34403651876771</v>
+        <v>4.732538940516704</v>
       </c>
       <c r="S11" t="n">
-        <v>173.6414407614981</v>
+        <v>126.0299431832471</v>
       </c>
       <c r="T11" t="n">
-        <v>216.2995819753072</v>
+        <v>168.6880843970561</v>
       </c>
       <c r="U11" t="n">
         <v>251.221449274003</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5128321286748</v>
+        <v>94.57662506175126</v>
       </c>
       <c r="H12" t="n">
-        <v>62.27656854655537</v>
+        <v>56.60127803522791</v>
       </c>
       <c r="I12" t="n">
-        <v>13.18479526831044</v>
+        <v>13.18479526831049</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9709973248752277</v>
+        <v>0.9709973248752988</v>
       </c>
       <c r="S12" t="n">
-        <v>108.6420633446243</v>
+        <v>156.2535609228754</v>
       </c>
       <c r="T12" t="n">
         <v>196.8164850687757</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>119.6830633517716</v>
+        <v>121.8692535110938</v>
       </c>
       <c r="H13" t="n">
         <v>108.42388199273</v>
       </c>
       <c r="I13" t="n">
-        <v>86.89577588294915</v>
+        <v>86.89577588294924</v>
       </c>
       <c r="J13" t="n">
-        <v>2.186190159321981</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.84649648511019</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R13" t="n">
         <v>145.9798864040368</v>
@@ -23513,7 +23513,7 @@
         <v>323.5747963033067</v>
       </c>
       <c r="I14" t="n">
-        <v>150.6213821533541</v>
+        <v>108.6851750864306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.732538940516619</v>
+        <v>52.34403651876774</v>
       </c>
       <c r="S14" t="n">
-        <v>126.029943183247</v>
+        <v>126.0299431832471</v>
       </c>
       <c r="T14" t="n">
         <v>168.6880843970561</v>
       </c>
       <c r="U14" t="n">
-        <v>209.2852422070795</v>
+        <v>203.609951695752</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>103.1330053264603</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>88.90133455042368</v>
+        <v>136.5128321286748</v>
       </c>
       <c r="H15" t="n">
-        <v>56.60127803522785</v>
+        <v>104.2127756134789</v>
       </c>
       <c r="I15" t="n">
-        <v>13.18479526831044</v>
+        <v>13.18479526831049</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>48.58249490312632</v>
+        <v>6.646287836202816</v>
       </c>
       <c r="S15" t="n">
-        <v>156.2535609228754</v>
+        <v>108.6420633446244</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8164850687757</v>
+        <v>149.2049874905247</v>
       </c>
       <c r="U15" t="n">
         <v>225.8867317497553</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8692535110936</v>
+        <v>121.8692535110938</v>
       </c>
       <c r="H16" t="n">
         <v>108.42388199273</v>
       </c>
       <c r="I16" t="n">
-        <v>86.89577588294915</v>
+        <v>86.89577588294924</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.84649648511019</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R16" t="n">
         <v>145.9798864040368</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.1223440852295</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>317.6613941927565</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>307.0715440424319</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23747,10 +23747,10 @@
         <v>413.7501920922169</v>
       </c>
       <c r="H17" t="n">
-        <v>323.5747963033067</v>
+        <v>281.6385892363832</v>
       </c>
       <c r="I17" t="n">
-        <v>150.6213821533541</v>
+        <v>103.0098845751031</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.34403651876771</v>
+        <v>4.732538940516704</v>
       </c>
       <c r="S17" t="n">
-        <v>173.6414407614981</v>
+        <v>126.0299431832471</v>
       </c>
       <c r="T17" t="n">
         <v>216.2995819753072</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>344.30173158913</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>103.1330053264603</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>88.90133455042368</v>
+        <v>136.5128321286748</v>
       </c>
       <c r="H18" t="n">
-        <v>56.60127803522785</v>
+        <v>104.2127756134789</v>
       </c>
       <c r="I18" t="n">
-        <v>13.18479526831044</v>
+        <v>18.86008577963801</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.58249490312632</v>
+        <v>0.9709973248752988</v>
       </c>
       <c r="S18" t="n">
-        <v>156.2535609228754</v>
+        <v>108.6420633446244</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8164850687757</v>
+        <v>149.2049874905247</v>
       </c>
       <c r="U18" t="n">
         <v>225.8867317497553</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>119.6353235203767</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23908,10 @@
         <v>156.0353795709811</v>
       </c>
       <c r="I19" t="n">
-        <v>134.5072734612002</v>
+        <v>134.5072734612003</v>
       </c>
       <c r="J19" t="n">
-        <v>44.12239722624555</v>
+        <v>44.12239722624556</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.84649648511019</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R19" t="n">
         <v>145.9798864040368</v>
@@ -23941,22 +23941,22 @@
         <v>211.8799241523189</v>
       </c>
       <c r="T19" t="n">
-        <v>183.0337763489494</v>
+        <v>224.969983415873</v>
       </c>
       <c r="U19" t="n">
-        <v>286.281042896758</v>
+        <v>238.669545318507</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>204.526145745577</v>
       </c>
       <c r="W19" t="n">
-        <v>238.9115007583399</v>
+        <v>244.5867912696675</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>178.0981578107861</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.9731557738437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.7288212982582</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>363.0029063520875</v>
       </c>
       <c r="D20" t="n">
-        <v>292.6780212554606</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>413.7501920922169</v>
       </c>
       <c r="H20" t="n">
-        <v>323.5747963033067</v>
+        <v>261.5697759380844</v>
       </c>
       <c r="I20" t="n">
         <v>150.6213821533541</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.34403651876771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>173.6414407614981</v>
@@ -24023,19 +24023,19 @@
         <v>216.2995819753072</v>
       </c>
       <c r="U20" t="n">
-        <v>196.6074273363152</v>
+        <v>251.221449274003</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>287.2359483521907</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>324.2329182908312</v>
+        <v>324.2329182908313</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24066,7 @@
         <v>104.2127756134789</v>
       </c>
       <c r="I21" t="n">
-        <v>60.79629284656153</v>
+        <v>54.76476581200006</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.58249490312632</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>101.6395389851876</v>
+        <v>156.2535609228754</v>
       </c>
       <c r="T21" t="n">
-        <v>134.8114647035534</v>
+        <v>196.8164850687757</v>
       </c>
       <c r="U21" t="n">
-        <v>163.881711384533</v>
+        <v>225.8867317497553</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>189.6899627956973</v>
       </c>
       <c r="X21" t="n">
-        <v>143.7679648382551</v>
+        <v>143.7679648382552</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>143.6776754120821</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>91.81994070888135</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,13 +24142,13 @@
         <v>167.2945609300227</v>
       </c>
       <c r="H22" t="n">
-        <v>94.03035920575871</v>
+        <v>156.0353795709811</v>
       </c>
       <c r="I22" t="n">
-        <v>72.50225309597789</v>
+        <v>134.5072734612003</v>
       </c>
       <c r="J22" t="n">
-        <v>44.12239722624555</v>
+        <v>44.12239722624556</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,28 +24169,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.84649648511019</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R22" t="n">
         <v>145.9798864040368</v>
       </c>
       <c r="S22" t="n">
-        <v>211.8799241523189</v>
+        <v>149.8749037870966</v>
       </c>
       <c r="T22" t="n">
-        <v>224.969983415873</v>
+        <v>162.9649630506507</v>
       </c>
       <c r="U22" t="n">
-        <v>286.281042896758</v>
+        <v>224.2760225315357</v>
       </c>
       <c r="V22" t="n">
-        <v>190.1326229586057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>171.0956334513494</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>298.0282210146088</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>329.044571443345</v>
+        <v>413.7501920922169</v>
       </c>
       <c r="H23" t="n">
         <v>323.5747963033067</v>
       </c>
       <c r="I23" t="n">
-        <v>128.3567080045956</v>
+        <v>150.6213821533541</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>52.34403651876774</v>
       </c>
       <c r="S23" t="n">
         <v>173.6414407614981</v>
@@ -24260,10 +24260,10 @@
         <v>216.2995819753072</v>
       </c>
       <c r="U23" t="n">
-        <v>251.221449274003</v>
+        <v>166.5158286251312</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>253.1435478026086</v>
       </c>
       <c r="W23" t="n">
         <v>264.5353480685412</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.5323180071817</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>48.58249490312633</v>
       </c>
       <c r="S24" t="n">
-        <v>71.54794027400362</v>
+        <v>156.2535609228754</v>
       </c>
       <c r="T24" t="n">
-        <v>112.1108644199039</v>
+        <v>196.8164850687757</v>
       </c>
       <c r="U24" t="n">
-        <v>141.1811111008835</v>
+        <v>151.2780210822291</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>148.0949665005535</v>
       </c>
       <c r="W24" t="n">
-        <v>225.6687673965197</v>
+        <v>166.9893625120478</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>121.0673645546057</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>61.72834199769736</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2945609300227</v>
+        <v>82.58894028115091</v>
       </c>
       <c r="H25" t="n">
         <v>156.0353795709811</v>
@@ -24412,22 +24412,22 @@
         <v>145.9798864040368</v>
       </c>
       <c r="S25" t="n">
-        <v>127.1743035034471</v>
+        <v>211.8799241523189</v>
       </c>
       <c r="T25" t="n">
-        <v>224.969983415873</v>
+        <v>140.2643627670012</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6723322292318</v>
+        <v>286.281042896758</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.8173776877192</v>
+        <v>211.9142876690647</v>
       </c>
       <c r="X25" t="n">
-        <v>141.0040347401653</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.0282210146088</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>332.2673350741852</v>
       </c>
       <c r="G26" t="n">
-        <v>413.7501920922169</v>
+        <v>329.044571443345</v>
       </c>
       <c r="H26" t="n">
         <v>323.5747963033067</v>
@@ -24500,7 +24500,7 @@
         <v>251.221449274003</v>
       </c>
       <c r="V26" t="n">
-        <v>253.1435478026087</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>264.5353480685412</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>91.92447298234109</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24537,7 +24537,7 @@
         <v>136.5128321286748</v>
       </c>
       <c r="H27" t="n">
-        <v>104.2127756134789</v>
+        <v>19.50715496460712</v>
       </c>
       <c r="I27" t="n">
         <v>60.79629284656153</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>48.58249490312633</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>156.2535609228754</v>
+        <v>71.54794027400362</v>
       </c>
       <c r="T27" t="n">
-        <v>196.8164850687757</v>
+        <v>112.1108644199039</v>
       </c>
       <c r="U27" t="n">
         <v>225.8867317497553</v>
       </c>
       <c r="V27" t="n">
-        <v>148.0949665005535</v>
+        <v>206.7743713850254</v>
       </c>
       <c r="W27" t="n">
-        <v>166.9893625120478</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>121.0673645546057</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.12635953306548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>63.90985236934054</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,10 +24619,10 @@
         <v>156.0353795709811</v>
       </c>
       <c r="I28" t="n">
-        <v>104.0209600199196</v>
+        <v>134.5072734612003</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.12239722624556</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>27.84649648511021</v>
       </c>
       <c r="R28" t="n">
-        <v>145.9798864040368</v>
+        <v>71.37117573651055</v>
       </c>
       <c r="S28" t="n">
-        <v>211.8799241523189</v>
+        <v>127.1743035034471</v>
       </c>
       <c r="T28" t="n">
-        <v>224.969983415873</v>
+        <v>140.2643627670012</v>
       </c>
       <c r="U28" t="n">
-        <v>286.281042896758</v>
+        <v>201.5754222478862</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>201.8173776877192</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24728,25 +24728,25 @@
         <v>52.34403651876774</v>
       </c>
       <c r="S29" t="n">
-        <v>173.6414407614981</v>
+        <v>88.93582011262629</v>
       </c>
       <c r="T29" t="n">
-        <v>216.2995819753072</v>
+        <v>131.5939613264354</v>
       </c>
       <c r="U29" t="n">
-        <v>251.221449274003</v>
+        <v>176.6127386064768</v>
       </c>
       <c r="V29" t="n">
-        <v>253.1435478026087</v>
+        <v>243.0466378212631</v>
       </c>
       <c r="W29" t="n">
-        <v>264.5353480685412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>285.0254800295972</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.5323180071817</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.82756300099553</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>88.00287833944392</v>
       </c>
       <c r="D30" t="n">
-        <v>62.73944491576694</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>131.6188646910011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>48.58249490312633</v>
       </c>
       <c r="S30" t="n">
-        <v>156.2535609228754</v>
+        <v>71.54794027400362</v>
       </c>
       <c r="T30" t="n">
         <v>196.8164850687757</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8867317497553</v>
+        <v>141.1811111008835</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>158.191876481899</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>105.223269514411</v>
       </c>
       <c r="C31" t="n">
         <v>82.54120044975602</v>
       </c>
       <c r="D31" t="n">
-        <v>63.90985236934054</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24889,7 +24889,7 @@
         <v>127.1743035034471</v>
       </c>
       <c r="T31" t="n">
-        <v>150.3612727483467</v>
+        <v>224.969983415873</v>
       </c>
       <c r="U31" t="n">
         <v>286.281042896758</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>133.879032703223</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>280.0743309531567</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>297.22474942339</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>322.1704250928397</v>
       </c>
       <c r="G32" t="n">
         <v>413.7501920922169</v>
       </c>
       <c r="H32" t="n">
-        <v>323.5747963033067</v>
+        <v>248.9660856357804</v>
       </c>
       <c r="I32" t="n">
-        <v>150.6213821533541</v>
+        <v>65.9157615044823</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>52.34403651876774</v>
       </c>
       <c r="S32" t="n">
-        <v>88.93582011262629</v>
+        <v>173.6414407614981</v>
       </c>
       <c r="T32" t="n">
         <v>131.5939613264354</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>81.82756300099553</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25011,7 +25011,7 @@
         <v>136.5128321286748</v>
       </c>
       <c r="H33" t="n">
-        <v>104.2127756134789</v>
+        <v>19.50715496460712</v>
       </c>
       <c r="I33" t="n">
         <v>60.79629284656153</v>
@@ -25044,13 +25044,13 @@
         <v>48.58249490312633</v>
       </c>
       <c r="S33" t="n">
-        <v>81.6448502553492</v>
+        <v>71.54794027400362</v>
       </c>
       <c r="T33" t="n">
-        <v>196.8164850687757</v>
+        <v>112.1108644199039</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8867317497553</v>
+        <v>151.2780210822291</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>121.0673645546057</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>120.9770751284325</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>95.12635953306548</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>82.54120044975602</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>61.72834199769736</v>
+        <v>143.7941456903987</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>136.808247488742</v>
+        <v>167.2945609300227</v>
       </c>
       <c r="H34" t="n">
         <v>156.0353795709811</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.84649648511021</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>145.9798864040368</v>
@@ -25129,7 +25129,7 @@
         <v>224.969983415873</v>
       </c>
       <c r="U34" t="n">
-        <v>201.5754222478862</v>
+        <v>286.281042896758</v>
       </c>
       <c r="V34" t="n">
         <v>167.4320226749562</v>
@@ -25169,10 +25169,10 @@
         <v>413.7501920922169</v>
       </c>
       <c r="H35" t="n">
-        <v>323.5747963033067</v>
+        <v>275.9632987250557</v>
       </c>
       <c r="I35" t="n">
-        <v>150.6213821533541</v>
+        <v>103.0098845751031</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25205,13 @@
         <v>126.0299431832471</v>
       </c>
       <c r="T35" t="n">
-        <v>168.6880843970561</v>
+        <v>174.3633749083837</v>
       </c>
       <c r="U35" t="n">
-        <v>203.609951695752</v>
+        <v>251.221449274003</v>
       </c>
       <c r="V35" t="n">
-        <v>285.8160514032114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>125.0970014100647</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.646287836202816</v>
+        <v>0.9709973248752988</v>
       </c>
       <c r="S36" t="n">
-        <v>108.6420633446244</v>
+        <v>114.3173538559519</v>
       </c>
       <c r="T36" t="n">
         <v>149.2049874905247</v>
@@ -25290,7 +25290,7 @@
         <v>225.8867317497553</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>185.1890895711742</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.742269600124</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>119.6353235203768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>101.0039754399613</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>98.82246506831814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>27.84649648511021</v>
       </c>
       <c r="R37" t="n">
         <v>145.9798864040368</v>
@@ -25363,16 +25363,16 @@
         <v>211.8799241523189</v>
       </c>
       <c r="T37" t="n">
-        <v>224.969983415873</v>
+        <v>183.0337763489495</v>
       </c>
       <c r="U37" t="n">
-        <v>286.281042896758</v>
+        <v>238.669545318507</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>204.526145745577</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>238.91150075834</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>334.3188724940107</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>366.1386945139658</v>
+        <v>413.7501920922169</v>
       </c>
       <c r="H38" t="n">
-        <v>281.6385892363832</v>
+        <v>323.5747963033067</v>
       </c>
       <c r="I38" t="n">
-        <v>103.0098845751031</v>
+        <v>108.6851750864306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>52.34403651876774</v>
       </c>
       <c r="S38" t="n">
-        <v>173.6414407614981</v>
+        <v>126.0299431832471</v>
       </c>
       <c r="T38" t="n">
-        <v>216.2995819753072</v>
+        <v>168.6880843970561</v>
       </c>
       <c r="U38" t="n">
-        <v>251.221449274003</v>
+        <v>203.609951695752</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>125.0970014100647</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>110.0335828771499</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.58249490312633</v>
+        <v>6.646287836202816</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2535609228754</v>
+        <v>108.6420633446244</v>
       </c>
       <c r="T39" t="n">
         <v>196.8164850687757</v>
@@ -25527,16 +25527,16 @@
         <v>225.8867317497553</v>
       </c>
       <c r="V39" t="n">
-        <v>190.8643800825018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>204.0834855826686</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>158.1614876252264</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>158.0711981990533</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>101.0039754399613</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>98.82246506831814</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,10 +25567,10 @@
         <v>156.0353795709811</v>
       </c>
       <c r="I40" t="n">
-        <v>134.5072734612003</v>
+        <v>86.89577588294924</v>
       </c>
       <c r="J40" t="n">
-        <v>2.186190159322045</v>
+        <v>44.12239722624556</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.84649648511021</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.36838882578576</v>
+        <v>145.9798864040368</v>
       </c>
       <c r="S40" t="n">
-        <v>164.2684265740679</v>
+        <v>211.8799241523189</v>
       </c>
       <c r="T40" t="n">
         <v>224.969983415873</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>272.4332877547777</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>170.9731557738438</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>339.9941630053382</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>359.2645481634604</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>366.1386945139658</v>
+        <v>413.7501920922169</v>
       </c>
       <c r="H41" t="n">
         <v>323.5747963033067</v>
@@ -25688,13 +25688,13 @@
         <v>280.1407608918839</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>301.629471139162</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>322.119603100218</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>344.3017315891301</v>
       </c>
     </row>
     <row r="42">
@@ -25710,22 +25710,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>105.5088584977152</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>110.0335828771499</v>
       </c>
       <c r="F42" t="n">
         <v>97.45771481513285</v>
       </c>
       <c r="G42" t="n">
-        <v>88.90133455042374</v>
+        <v>136.5128321286748</v>
       </c>
       <c r="H42" t="n">
         <v>56.60127803522791</v>
       </c>
       <c r="I42" t="n">
-        <v>18.86008577963801</v>
+        <v>60.79629284656153</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.8957731150138</v>
+        <v>165.742269600124</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25828,13 +25828,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.84649648511021</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>145.9798864040368</v>
+        <v>98.36838882578576</v>
       </c>
       <c r="S43" t="n">
-        <v>164.2684265740679</v>
+        <v>211.8799241523189</v>
       </c>
       <c r="T43" t="n">
         <v>224.969983415873</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>238.91150075834</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>178.0981578107861</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>170.9731557738438</v>
       </c>
     </row>
     <row r="44">
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>348.712395280982</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>373.6580709504317</v>
       </c>
       <c r="G44" t="n">
         <v>413.7501920922169</v>
@@ -25913,7 +25913,7 @@
         <v>52.34403651876774</v>
       </c>
       <c r="S44" t="n">
-        <v>144.3830485653389</v>
+        <v>173.6414407614981</v>
       </c>
       <c r="T44" t="n">
         <v>216.2995819753072</v>
@@ -25922,16 +25922,16 @@
         <v>218.0034744827233</v>
       </c>
       <c r="V44" t="n">
-        <v>294.5342836788551</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>316.0229939261333</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>356.9795464598944</v>
       </c>
     </row>
     <row r="45">
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5128321286748</v>
+        <v>107.2544399325156</v>
       </c>
       <c r="H45" t="n">
         <v>104.2127756134789</v>
@@ -25992,13 +25992,13 @@
         <v>15.36452011184656</v>
       </c>
       <c r="S45" t="n">
-        <v>123.0355861315957</v>
+        <v>156.2535609228754</v>
       </c>
       <c r="T45" t="n">
-        <v>163.5985102774959</v>
+        <v>196.8164850687757</v>
       </c>
       <c r="U45" t="n">
-        <v>196.6283395535961</v>
+        <v>225.8867317497553</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>172.5550104121977</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>172.4647209860246</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>146.6140053906575</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>165.8349253875788</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>116.162655826772</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>134.076586138743</v>
+        <v>167.2945609300227</v>
       </c>
       <c r="H46" t="n">
-        <v>122.8174047797013</v>
+        <v>156.0353795709811</v>
       </c>
       <c r="I46" t="n">
         <v>134.5072734612003</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.84649648511021</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>145.9798864040368</v>
@@ -26077,7 +26077,7 @@
         <v>224.969983415873</v>
       </c>
       <c r="U46" t="n">
-        <v>286.281042896758</v>
+        <v>253.0630681054783</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>185.366678560815</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290974.0597709313</v>
+        <v>290974.0597709314</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290974.0597709313</v>
+        <v>290974.0597709314</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>321334.6060665773</v>
+        <v>321334.6060665774</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>290974.0597709313</v>
+        <v>290974.0597709314</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377791</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="E2" t="n">
         <v>202942.8827955179</v>
@@ -26335,7 +26335,7 @@
         <v>218705.9413684829</v>
       </c>
       <c r="J2" t="n">
-        <v>218705.9413684829</v>
+        <v>218705.9413684828</v>
       </c>
       <c r="K2" t="n">
         <v>218705.9413684828</v>
@@ -26350,7 +26350,7 @@
         <v>202942.8827955179</v>
       </c>
       <c r="O2" t="n">
-        <v>202942.8827955178</v>
+        <v>202942.8827955179</v>
       </c>
       <c r="P2" t="n">
         <v>196826.3898316493</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>324486.5087630849</v>
+        <v>324486.5087630848</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>3883.50198962993</v>
       </c>
       <c r="I3" t="n">
-        <v>6036.566328028356</v>
+        <v>6036.566328028459</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2620.971796799496</v>
+        <v>2620.971796799512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456657.5771287308</v>
+        <v>457775.3608255374</v>
       </c>
       <c r="C4" t="n">
-        <v>456657.5771287309</v>
+        <v>457775.3608255374</v>
       </c>
       <c r="D4" t="n">
-        <v>456657.5771287308</v>
+        <v>457775.3608255374</v>
       </c>
       <c r="E4" t="n">
-        <v>20222.99452153757</v>
+        <v>20424.83575917076</v>
       </c>
       <c r="F4" t="n">
-        <v>20222.99452153757</v>
+        <v>20424.83575917076</v>
       </c>
       <c r="G4" t="n">
-        <v>20222.99452153757</v>
+        <v>20424.83575917076</v>
       </c>
       <c r="H4" t="n">
-        <v>23304.60488389359</v>
+        <v>23537.14108505455</v>
       </c>
       <c r="I4" t="n">
-        <v>29505.77836301327</v>
+        <v>29800.13684922077</v>
       </c>
       <c r="J4" t="n">
-        <v>29505.77836301327</v>
+        <v>29800.13684922078</v>
       </c>
       <c r="K4" t="n">
-        <v>29505.77836301327</v>
+        <v>29800.13684922077</v>
       </c>
       <c r="L4" t="n">
-        <v>29505.77836301327</v>
+        <v>29800.13684922077</v>
       </c>
       <c r="M4" t="n">
-        <v>20222.99452153758</v>
+        <v>20424.83575917076</v>
       </c>
       <c r="N4" t="n">
-        <v>20222.99452153758</v>
+        <v>20424.83575917076</v>
       </c>
       <c r="O4" t="n">
-        <v>20222.99452153759</v>
+        <v>20424.83575917076</v>
       </c>
       <c r="P4" t="n">
-        <v>18111.35399445757</v>
+        <v>18292.20112790885</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124172.076909048</v>
+        <v>123054.2932122416</v>
       </c>
       <c r="C6" t="n">
-        <v>124172.076909048</v>
+        <v>123054.2932122416</v>
       </c>
       <c r="D6" t="n">
-        <v>124172.0769090482</v>
+        <v>123054.2932122416</v>
       </c>
       <c r="E6" t="n">
-        <v>-153080.4652339916</v>
+        <v>-153282.3064716247</v>
       </c>
       <c r="F6" t="n">
-        <v>171406.0435290933</v>
+        <v>171204.2022914601</v>
       </c>
       <c r="G6" t="n">
-        <v>171406.0435290933</v>
+        <v>171204.2022914601</v>
       </c>
       <c r="H6" t="n">
-        <v>169682.2979555283</v>
+        <v>169449.7617543673</v>
       </c>
       <c r="I6" t="n">
-        <v>169594.4292498605</v>
+        <v>169300.0707636529</v>
       </c>
       <c r="J6" t="n">
-        <v>175630.9955778888</v>
+        <v>175336.6370916812</v>
       </c>
       <c r="K6" t="n">
-        <v>175630.9955778888</v>
+        <v>175336.6370916812</v>
       </c>
       <c r="L6" t="n">
-        <v>175630.9955778888</v>
+        <v>175336.6370916812</v>
       </c>
       <c r="M6" t="n">
-        <v>168785.0717322938</v>
+        <v>168583.2304946606</v>
       </c>
       <c r="N6" t="n">
-        <v>171406.0435290933</v>
+        <v>171204.2022914601</v>
       </c>
       <c r="O6" t="n">
-        <v>171406.0435290932</v>
+        <v>171204.2022914601</v>
       </c>
       <c r="P6" t="n">
-        <v>168276.3172777525</v>
+        <v>168095.4701443012</v>
       </c>
     </row>
   </sheetData>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>386.1956739508887</v>
+        <v>386.1956739508886</v>
       </c>
       <c r="F3" t="n">
-        <v>386.1956739508887</v>
+        <v>386.1956739508886</v>
       </c>
       <c r="G3" t="n">
-        <v>386.1956739508887</v>
+        <v>386.1956739508886</v>
       </c>
       <c r="H3" t="n">
-        <v>386.1956739508887</v>
+        <v>386.1956739508886</v>
       </c>
       <c r="I3" t="n">
         <v>386.1956739508886</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="F4" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="G4" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="H4" t="n">
-        <v>62.00502036522236</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="I4" t="n">
         <v>84.70562064887181</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>386.1956739508887</v>
+        <v>386.1956739508886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>14.39352278697126</v>
       </c>
       <c r="I4" t="n">
-        <v>22.70060028364949</v>
+        <v>22.70060028364988</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>10.51737450763028</v>
+        <v>10.51737450763034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31756,40 +31756,40 @@
         <v>15.90000581246045</v>
       </c>
       <c r="I11" t="n">
-        <v>59.85450741705182</v>
+        <v>59.8545074170518</v>
       </c>
       <c r="J11" t="n">
-        <v>131.770352088399</v>
+        <v>131.7703520883989</v>
       </c>
       <c r="K11" t="n">
-        <v>197.4895998405241</v>
+        <v>197.489599840524</v>
       </c>
       <c r="L11" t="n">
-        <v>245.0033118271553</v>
+        <v>245.0033118271552</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6133914919758</v>
+        <v>272.6133914919757</v>
       </c>
       <c r="N11" t="n">
-        <v>277.024561174842</v>
+        <v>277.0245611748419</v>
       </c>
       <c r="O11" t="n">
-        <v>261.5864376256997</v>
+        <v>261.5864376256996</v>
       </c>
       <c r="P11" t="n">
-        <v>223.257972497408</v>
+        <v>223.2579724974079</v>
       </c>
       <c r="Q11" t="n">
-        <v>167.6574395391519</v>
+        <v>167.6574395391518</v>
       </c>
       <c r="R11" t="n">
-        <v>97.52508142238197</v>
+        <v>97.52508142238194</v>
       </c>
       <c r="S11" t="n">
-        <v>35.37862882474725</v>
+        <v>35.37862882474724</v>
       </c>
       <c r="T11" t="n">
-        <v>6.796267588824181</v>
+        <v>6.796267588824178</v>
       </c>
       <c r="U11" t="n">
         <v>0.1242036338334515</v>
@@ -31829,19 +31829,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8306850345358738</v>
+        <v>0.8306850345358736</v>
       </c>
       <c r="H12" t="n">
-        <v>8.02266862301752</v>
+        <v>8.022668623017518</v>
       </c>
       <c r="I12" t="n">
         <v>28.60034000485355</v>
       </c>
       <c r="J12" t="n">
-        <v>78.48151898656694</v>
+        <v>78.48151898656691</v>
       </c>
       <c r="K12" t="n">
-        <v>134.1374163004705</v>
+        <v>134.1374163004704</v>
       </c>
       <c r="L12" t="n">
         <v>180.3643098013089</v>
@@ -31850,28 +31850,28 @@
         <v>189.7455315002694</v>
       </c>
       <c r="N12" t="n">
-        <v>158.1810797186768</v>
+        <v>178.9532096615843</v>
       </c>
       <c r="O12" t="n">
         <v>190.2077420226955</v>
       </c>
       <c r="P12" t="n">
-        <v>158.6244080422056</v>
+        <v>137.852278099298</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.0362159874214</v>
+        <v>106.0362159874213</v>
       </c>
       <c r="R12" t="n">
-        <v>51.57533924951682</v>
+        <v>51.5753392495168</v>
       </c>
       <c r="S12" t="n">
         <v>15.42961018096238</v>
       </c>
       <c r="T12" t="n">
-        <v>3.348243626045911</v>
+        <v>3.34824362604591</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05465033121946541</v>
+        <v>0.05465033121946539</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6964184284360287</v>
+        <v>0.6964184284360285</v>
       </c>
       <c r="H13" t="n">
-        <v>6.191792936458515</v>
+        <v>6.191792936458513</v>
       </c>
       <c r="I13" t="n">
-        <v>20.94320146605804</v>
+        <v>20.94320146605803</v>
       </c>
       <c r="J13" t="n">
-        <v>49.23678289042723</v>
+        <v>49.23678289042721</v>
       </c>
       <c r="K13" t="n">
-        <v>80.91115923102222</v>
+        <v>80.91115923102221</v>
       </c>
       <c r="L13" t="n">
         <v>103.538427078571</v>
       </c>
       <c r="M13" t="n">
-        <v>109.1667541956586</v>
+        <v>109.1667541956585</v>
       </c>
       <c r="N13" t="n">
         <v>106.5710127805789</v>
       </c>
       <c r="O13" t="n">
-        <v>98.43557932112162</v>
+        <v>98.43557932112159</v>
       </c>
       <c r="P13" t="n">
-        <v>84.22864338102657</v>
+        <v>84.22864338102654</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.31554676658419</v>
+        <v>58.31554676658418</v>
       </c>
       <c r="R13" t="n">
-        <v>31.3135049731327</v>
+        <v>31.31350497313269</v>
       </c>
       <c r="S13" t="n">
         <v>12.13667388465333</v>
       </c>
       <c r="T13" t="n">
-        <v>2.975606012408486</v>
+        <v>2.975606012408485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03798645973287434</v>
+        <v>0.03798645973287432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,40 +31993,40 @@
         <v>15.90000581246045</v>
       </c>
       <c r="I14" t="n">
-        <v>59.85450741705182</v>
+        <v>59.8545074170518</v>
       </c>
       <c r="J14" t="n">
-        <v>131.770352088399</v>
+        <v>131.7703520883989</v>
       </c>
       <c r="K14" t="n">
-        <v>197.4895998405241</v>
+        <v>197.489599840524</v>
       </c>
       <c r="L14" t="n">
-        <v>245.0033118271553</v>
+        <v>245.0033118271552</v>
       </c>
       <c r="M14" t="n">
-        <v>272.6133914919758</v>
+        <v>272.6133914919757</v>
       </c>
       <c r="N14" t="n">
-        <v>277.024561174842</v>
+        <v>277.0245611748419</v>
       </c>
       <c r="O14" t="n">
-        <v>261.5864376256997</v>
+        <v>261.5864376256996</v>
       </c>
       <c r="P14" t="n">
-        <v>223.257972497408</v>
+        <v>223.2579724974079</v>
       </c>
       <c r="Q14" t="n">
-        <v>167.6574395391519</v>
+        <v>167.6574395391518</v>
       </c>
       <c r="R14" t="n">
-        <v>97.52508142238197</v>
+        <v>97.52508142238194</v>
       </c>
       <c r="S14" t="n">
-        <v>35.37862882474725</v>
+        <v>35.37862882474724</v>
       </c>
       <c r="T14" t="n">
-        <v>6.796267588824181</v>
+        <v>6.796267588824178</v>
       </c>
       <c r="U14" t="n">
         <v>0.1242036338334515</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8306850345358738</v>
+        <v>0.8306850345358736</v>
       </c>
       <c r="H15" t="n">
-        <v>8.02266862301752</v>
+        <v>8.022668623017518</v>
       </c>
       <c r="I15" t="n">
         <v>28.60034000485355</v>
       </c>
       <c r="J15" t="n">
-        <v>78.48151898656694</v>
+        <v>78.48151898656691</v>
       </c>
       <c r="K15" t="n">
-        <v>134.1374163004705</v>
+        <v>134.1374163004704</v>
       </c>
       <c r="L15" t="n">
         <v>180.3643098013089</v>
       </c>
       <c r="M15" t="n">
-        <v>168.9734015573619</v>
+        <v>189.7455315002694</v>
       </c>
       <c r="N15" t="n">
-        <v>178.9532096615844</v>
+        <v>178.9532096615843</v>
       </c>
       <c r="O15" t="n">
-        <v>190.2077420226955</v>
+        <v>169.4356120797879</v>
       </c>
       <c r="P15" t="n">
         <v>158.6244080422056</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.0362159874214</v>
+        <v>106.0362159874213</v>
       </c>
       <c r="R15" t="n">
-        <v>51.57533924951682</v>
+        <v>51.5753392495168</v>
       </c>
       <c r="S15" t="n">
         <v>15.42961018096238</v>
       </c>
       <c r="T15" t="n">
-        <v>3.348243626045911</v>
+        <v>3.34824362604591</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05465033121946541</v>
+        <v>0.05465033121946539</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6964184284360287</v>
+        <v>0.6964184284360285</v>
       </c>
       <c r="H16" t="n">
-        <v>6.191792936458515</v>
+        <v>6.191792936458513</v>
       </c>
       <c r="I16" t="n">
-        <v>20.94320146605804</v>
+        <v>20.94320146605803</v>
       </c>
       <c r="J16" t="n">
-        <v>49.23678289042723</v>
+        <v>49.23678289042721</v>
       </c>
       <c r="K16" t="n">
-        <v>80.91115923102222</v>
+        <v>80.91115923102221</v>
       </c>
       <c r="L16" t="n">
         <v>103.538427078571</v>
       </c>
       <c r="M16" t="n">
-        <v>109.1667541956586</v>
+        <v>109.1667541956585</v>
       </c>
       <c r="N16" t="n">
         <v>106.5710127805789</v>
       </c>
       <c r="O16" t="n">
-        <v>98.43557932112162</v>
+        <v>98.43557932112159</v>
       </c>
       <c r="P16" t="n">
-        <v>84.22864338102657</v>
+        <v>84.22864338102654</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.31554676658419</v>
+        <v>58.31554676658418</v>
       </c>
       <c r="R16" t="n">
-        <v>31.3135049731327</v>
+        <v>31.31350497313269</v>
       </c>
       <c r="S16" t="n">
         <v>12.13667388465333</v>
       </c>
       <c r="T16" t="n">
-        <v>2.975606012408486</v>
+        <v>2.975606012408485</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03798645973287434</v>
+        <v>0.03798645973287432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,40 +32230,40 @@
         <v>15.90000581246045</v>
       </c>
       <c r="I17" t="n">
-        <v>59.85450741705182</v>
+        <v>59.8545074170518</v>
       </c>
       <c r="J17" t="n">
-        <v>131.770352088399</v>
+        <v>131.7703520883989</v>
       </c>
       <c r="K17" t="n">
-        <v>197.4895998405241</v>
+        <v>197.489599840524</v>
       </c>
       <c r="L17" t="n">
-        <v>245.0033118271553</v>
+        <v>245.0033118271552</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6133914919758</v>
+        <v>272.6133914919757</v>
       </c>
       <c r="N17" t="n">
-        <v>277.024561174842</v>
+        <v>277.0245611748419</v>
       </c>
       <c r="O17" t="n">
-        <v>261.5864376256997</v>
+        <v>261.5864376256996</v>
       </c>
       <c r="P17" t="n">
-        <v>223.257972497408</v>
+        <v>223.2579724974079</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.6574395391519</v>
+        <v>167.6574395391518</v>
       </c>
       <c r="R17" t="n">
-        <v>97.52508142238197</v>
+        <v>97.52508142238194</v>
       </c>
       <c r="S17" t="n">
-        <v>35.37862882474725</v>
+        <v>35.37862882474724</v>
       </c>
       <c r="T17" t="n">
-        <v>6.796267588824181</v>
+        <v>6.796267588824178</v>
       </c>
       <c r="U17" t="n">
         <v>0.1242036338334515</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8306850345358738</v>
+        <v>0.8306850345358736</v>
       </c>
       <c r="H18" t="n">
-        <v>8.02266862301752</v>
+        <v>8.022668623017518</v>
       </c>
       <c r="I18" t="n">
         <v>28.60034000485355</v>
       </c>
       <c r="J18" t="n">
-        <v>78.48151898656694</v>
+        <v>78.48151898656691</v>
       </c>
       <c r="K18" t="n">
-        <v>134.1374163004705</v>
+        <v>134.1374163004704</v>
       </c>
       <c r="L18" t="n">
         <v>180.3643098013089</v>
@@ -32333,19 +32333,19 @@
         <v>158.6244080422056</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.0362159874214</v>
+        <v>106.0362159874213</v>
       </c>
       <c r="R18" t="n">
-        <v>51.57533924951682</v>
+        <v>51.5753392495168</v>
       </c>
       <c r="S18" t="n">
         <v>15.42961018096238</v>
       </c>
       <c r="T18" t="n">
-        <v>3.348243626045911</v>
+        <v>3.34824362604591</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05465033121946541</v>
+        <v>0.05465033121946539</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6964184284360287</v>
+        <v>0.6964184284360285</v>
       </c>
       <c r="H19" t="n">
-        <v>6.191792936458515</v>
+        <v>6.191792936458513</v>
       </c>
       <c r="I19" t="n">
-        <v>20.94320146605804</v>
+        <v>20.94320146605803</v>
       </c>
       <c r="J19" t="n">
-        <v>49.23678289042723</v>
+        <v>49.23678289042721</v>
       </c>
       <c r="K19" t="n">
-        <v>80.91115923102222</v>
+        <v>80.91115923102221</v>
       </c>
       <c r="L19" t="n">
         <v>103.538427078571</v>
       </c>
       <c r="M19" t="n">
-        <v>109.1667541956586</v>
+        <v>109.1667541956585</v>
       </c>
       <c r="N19" t="n">
         <v>106.5710127805789</v>
       </c>
       <c r="O19" t="n">
-        <v>98.43557932112162</v>
+        <v>98.43557932112159</v>
       </c>
       <c r="P19" t="n">
-        <v>84.22864338102657</v>
+        <v>84.22864338102654</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.31554676658419</v>
+        <v>58.31554676658418</v>
       </c>
       <c r="R19" t="n">
-        <v>31.3135049731327</v>
+        <v>31.31350497313269</v>
       </c>
       <c r="S19" t="n">
         <v>12.13667388465333</v>
       </c>
       <c r="T19" t="n">
-        <v>2.975606012408486</v>
+        <v>2.975606012408485</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03798645973287434</v>
+        <v>0.03798645973287432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,40 +32467,40 @@
         <v>15.90000581246045</v>
       </c>
       <c r="I20" t="n">
-        <v>59.85450741705182</v>
+        <v>59.8545074170518</v>
       </c>
       <c r="J20" t="n">
-        <v>131.770352088399</v>
+        <v>131.7703520883989</v>
       </c>
       <c r="K20" t="n">
-        <v>197.4895998405241</v>
+        <v>197.489599840524</v>
       </c>
       <c r="L20" t="n">
-        <v>245.0033118271553</v>
+        <v>245.0033118271552</v>
       </c>
       <c r="M20" t="n">
-        <v>272.6133914919758</v>
+        <v>272.6133914919757</v>
       </c>
       <c r="N20" t="n">
-        <v>277.024561174842</v>
+        <v>277.0245611748419</v>
       </c>
       <c r="O20" t="n">
-        <v>261.5864376256997</v>
+        <v>261.5864376256996</v>
       </c>
       <c r="P20" t="n">
-        <v>223.257972497408</v>
+        <v>223.2579724974079</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.6574395391519</v>
+        <v>167.6574395391518</v>
       </c>
       <c r="R20" t="n">
-        <v>97.52508142238197</v>
+        <v>97.52508142238194</v>
       </c>
       <c r="S20" t="n">
-        <v>35.37862882474725</v>
+        <v>35.37862882474724</v>
       </c>
       <c r="T20" t="n">
-        <v>6.796267588824181</v>
+        <v>6.796267588824178</v>
       </c>
       <c r="U20" t="n">
         <v>0.1242036338334515</v>
@@ -32540,28 +32540,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8306850345358738</v>
+        <v>0.8306850345358736</v>
       </c>
       <c r="H21" t="n">
-        <v>8.02266862301752</v>
+        <v>8.022668623017518</v>
       </c>
       <c r="I21" t="n">
         <v>28.60034000485355</v>
       </c>
       <c r="J21" t="n">
-        <v>78.48151898656694</v>
+        <v>78.48151898656691</v>
       </c>
       <c r="K21" t="n">
-        <v>134.1374163004705</v>
+        <v>134.1374163004704</v>
       </c>
       <c r="L21" t="n">
         <v>180.3643098013089</v>
       </c>
       <c r="M21" t="n">
-        <v>204.1390542872407</v>
+        <v>204.1390542872406</v>
       </c>
       <c r="N21" t="n">
-        <v>193.3467324485557</v>
+        <v>193.3467324485556</v>
       </c>
       <c r="O21" t="n">
         <v>197.6411011774892</v>
@@ -32570,19 +32570,19 @@
         <v>158.6244080422056</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.0362159874214</v>
+        <v>106.0362159874213</v>
       </c>
       <c r="R21" t="n">
-        <v>51.57533924951682</v>
+        <v>51.5753392495168</v>
       </c>
       <c r="S21" t="n">
         <v>15.42961018096238</v>
       </c>
       <c r="T21" t="n">
-        <v>3.348243626045911</v>
+        <v>3.34824362604591</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05465033121946541</v>
+        <v>0.05465033121946539</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6964184284360287</v>
+        <v>0.6964184284360285</v>
       </c>
       <c r="H22" t="n">
-        <v>6.191792936458515</v>
+        <v>6.191792936458513</v>
       </c>
       <c r="I22" t="n">
-        <v>20.94320146605804</v>
+        <v>20.94320146605803</v>
       </c>
       <c r="J22" t="n">
-        <v>49.23678289042723</v>
+        <v>49.23678289042721</v>
       </c>
       <c r="K22" t="n">
-        <v>80.91115923102222</v>
+        <v>80.91115923102221</v>
       </c>
       <c r="L22" t="n">
         <v>103.538427078571</v>
       </c>
       <c r="M22" t="n">
-        <v>109.1667541956586</v>
+        <v>109.1667541956585</v>
       </c>
       <c r="N22" t="n">
         <v>106.5710127805789</v>
       </c>
       <c r="O22" t="n">
-        <v>98.43557932112162</v>
+        <v>98.43557932112159</v>
       </c>
       <c r="P22" t="n">
-        <v>84.22864338102657</v>
+        <v>84.22864338102654</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.31554676658419</v>
+        <v>58.31554676658418</v>
       </c>
       <c r="R22" t="n">
-        <v>31.3135049731327</v>
+        <v>31.31350497313269</v>
       </c>
       <c r="S22" t="n">
         <v>12.13667388465333</v>
       </c>
       <c r="T22" t="n">
-        <v>2.975606012408486</v>
+        <v>2.975606012408485</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03798645973287434</v>
+        <v>0.03798645973287432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34451,7 +34451,7 @@
         <v>134.1374163004704</v>
       </c>
       <c r="L45" t="n">
-        <v>171.772354571154</v>
+        <v>145.7802135476713</v>
       </c>
       <c r="M45" t="n">
         <v>175.3520087132981</v>
@@ -34460,7 +34460,7 @@
         <v>164.5596868746131</v>
       </c>
       <c r="O45" t="n">
-        <v>149.8220782122416</v>
+        <v>175.8142192357242</v>
       </c>
       <c r="P45" t="n">
         <v>158.6244080422056</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.30701695876957</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.236896857168034</v>
+        <v>9.236896857167977</v>
       </c>
       <c r="M11" t="n">
-        <v>42.26715826470306</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N11" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O11" t="n">
-        <v>31.48822620401299</v>
+        <v>31.48822620401288</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.962677645221648</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>41.80993002143475</v>
+        <v>41.8099300214347</v>
       </c>
       <c r="M12" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N12" t="n">
-        <v>26.83936763534353</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O12" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="P12" t="n">
-        <v>24.65000062787536</v>
+        <v>3.877870684967798</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="L13" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>47.61149757825109</v>
+        <v>45.6878007064025</v>
       </c>
       <c r="O13" t="n">
-        <v>45.68780070640255</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>10.30701695876957</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.236896857168034</v>
+        <v>9.236896857167977</v>
       </c>
       <c r="M14" t="n">
-        <v>42.26715826470306</v>
+        <v>42.267158264703</v>
       </c>
       <c r="N14" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O14" t="n">
-        <v>31.48822620401299</v>
+        <v>31.48822620401288</v>
       </c>
       <c r="P14" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>10.30701695876967</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>41.80993002143475</v>
+        <v>41.8099300214347</v>
       </c>
       <c r="M15" t="n">
-        <v>26.83936763534354</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N15" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O15" t="n">
-        <v>47.61149757825109</v>
+        <v>26.8393676353435</v>
       </c>
       <c r="P15" t="n">
-        <v>24.65000062787536</v>
+        <v>24.65000062787533</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="M16" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N16" t="n">
-        <v>47.61149757825109</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>45.68780070640249</v>
       </c>
       <c r="P16" t="n">
-        <v>45.68780070640255</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="L17" t="n">
-        <v>9.236896857168034</v>
+        <v>9.236896857167977</v>
       </c>
       <c r="M17" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N17" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O17" t="n">
-        <v>47.61149757825109</v>
+        <v>36.45090384923452</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.45090384923452</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>41.80993002143475</v>
+        <v>41.8099300214347</v>
       </c>
       <c r="M18" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N18" t="n">
-        <v>26.83936763534353</v>
+        <v>26.8393676353435</v>
       </c>
       <c r="O18" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="P18" t="n">
-        <v>24.65000062787536</v>
+        <v>24.65000062787533</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.68780070640256</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N19" t="n">
-        <v>47.61149757825109</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="P19" t="n">
-        <v>47.61149757825109</v>
+        <v>45.68780070640249</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>62.00502036522236</v>
+        <v>9.236896857167977</v>
       </c>
       <c r="M20" t="n">
-        <v>42.26715826470306</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="N20" t="n">
-        <v>47.61149757825109</v>
+        <v>50.26287015996456</v>
       </c>
       <c r="O20" t="n">
-        <v>31.62613153940078</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>41.80993002143475</v>
+        <v>41.8099300214347</v>
       </c>
       <c r="M21" t="n">
-        <v>62.00502036522236</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="N21" t="n">
-        <v>62.00502036522236</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="O21" t="n">
-        <v>55.04485673304481</v>
+        <v>55.04485673304475</v>
       </c>
       <c r="P21" t="n">
-        <v>24.65000062787536</v>
+        <v>24.65000062787533</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>58.64166740513937</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>62.00502036522236</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>62.00502036522236</v>
+        <v>59.49976701713253</v>
       </c>
       <c r="N22" t="n">
-        <v>62.00502036522236</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8580996119932114</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>62.0050203652223</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>35.38501307446237</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>9.236896857167977</v>
       </c>
       <c r="M23" t="n">
-        <v>42.267158264703</v>
+        <v>72.04627447255747</v>
       </c>
       <c r="N23" t="n">
-        <v>47.61149757825103</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="O23" t="n">
-        <v>31.48822620401288</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.84701686389843</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>24.65000062787533</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>60.84701686389839</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>58.64166740513936</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>84.70562064887181</v>
@@ -36525,10 +36525,10 @@
         <v>84.70562064887181</v>
       </c>
       <c r="N25" t="n">
+        <v>81.28317132972545</v>
+      </c>
+      <c r="O25" t="n">
         <v>84.70562064887181</v>
-      </c>
-      <c r="O25" t="n">
-        <v>22.64150392458611</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="L26" t="n">
-        <v>81.28317132972545</v>
+        <v>76.11013613564323</v>
       </c>
       <c r="M26" t="n">
-        <v>84.70562064887181</v>
+        <v>42.267158264703</v>
       </c>
       <c r="N26" t="n">
-        <v>84.70562064887181</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="O26" t="n">
         <v>84.70562064887181</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>84.70562064887181</v>
+        <v>41.8099300214347</v>
       </c>
       <c r="M27" t="n">
         <v>68.34260838121594</v>
@@ -36692,7 +36692,7 @@
         <v>24.65000062787533</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.95132623646125</v>
+        <v>60.84701686389839</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.64166740513936</v>
       </c>
       <c r="L28" t="n">
         <v>84.70562064887181</v>
@@ -36762,10 +36762,10 @@
         <v>84.70562064887181</v>
       </c>
       <c r="N28" t="n">
+        <v>22.64150392458611</v>
+      </c>
+      <c r="O28" t="n">
         <v>84.70562064887181</v>
-      </c>
-      <c r="O28" t="n">
-        <v>81.28317132972545</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>76.11013613564323</v>
+      </c>
+      <c r="M29" t="n">
+        <v>42.267158264703</v>
+      </c>
+      <c r="N29" t="n">
+        <v>47.61149757825103</v>
+      </c>
+      <c r="O29" t="n">
         <v>84.70562064887181</v>
       </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>84.70562064887181</v>
-      </c>
-      <c r="N29" t="n">
-        <v>84.70562064887181</v>
-      </c>
-      <c r="O29" t="n">
-        <v>81.28317132972545</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.84701686389843</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>24.65000062787533</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.84701686389839</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>58.64166740513936</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>84.70562064887181</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>25.83992192753788</v>
+        <v>84.48158933267723</v>
       </c>
       <c r="O31" t="n">
         <v>84.70562064887181</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.38501307446237</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="L32" t="n">
         <v>9.236896857167977</v>
@@ -37084,10 +37084,10 @@
         <v>31.48822620401288</v>
       </c>
       <c r="P32" t="n">
-        <v>84.70562064887181</v>
+        <v>35.38501307446241</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.84701686389843</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>84.70562064887181</v>
       </c>
       <c r="O33" t="n">
-        <v>55.04485673304475</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="P33" t="n">
-        <v>24.65000062787533</v>
+        <v>55.83625357594664</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>84.70562064887181</v>
       </c>
       <c r="M34" t="n">
-        <v>84.70562064887181</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>84.48158933267723</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>84.70562064887181</v>
       </c>
       <c r="P34" t="n">
         <v>81.50720264592003</v>
@@ -37306,13 +37306,13 @@
         <v>47.61149757825103</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>10.30701695876967</v>
       </c>
       <c r="L35" t="n">
-        <v>14.19957450238962</v>
+        <v>9.236896857167977</v>
       </c>
       <c r="M35" t="n">
-        <v>47.61149757825103</v>
+        <v>42.267158264703</v>
       </c>
       <c r="N35" t="n">
         <v>47.61149757825103</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="M37" t="n">
-        <v>45.6878007064025</v>
+        <v>45.68780070640249</v>
       </c>
       <c r="N37" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>47.61149757825103</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="M40" t="n">
-        <v>45.6878007064025</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="N40" t="n">
-        <v>47.61149757825103</v>
+        <v>45.68780070640249</v>
       </c>
       <c r="O40" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>9.236896857167977</v>
@@ -37792,13 +37792,13 @@
         <v>47.61149757825103</v>
       </c>
       <c r="O41" t="n">
-        <v>31.48822620401288</v>
+        <v>41.79524316278255</v>
       </c>
       <c r="P41" t="n">
-        <v>10.3070169587697</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>45.6878007064025</v>
       </c>
       <c r="L43" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>47.61149757825103</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>47.61149757825103</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>47.61149757825103</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>9.236896857167977</v>
+        <v>31.87583439567249</v>
       </c>
       <c r="M44" t="n">
         <v>33.21797479127977</v>
@@ -38032,7 +38032,7 @@
         <v>33.21797479127977</v>
       </c>
       <c r="P44" t="n">
-        <v>22.63893753850453</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>33.21797479127977</v>
+        <v>7.225833767797167</v>
       </c>
       <c r="M45" t="n">
         <v>33.21797479127977</v>
@@ -38108,7 +38108,7 @@
         <v>33.21797479127977</v>
       </c>
       <c r="O45" t="n">
-        <v>7.225833767797162</v>
+        <v>33.21797479127977</v>
       </c>
       <c r="P45" t="n">
         <v>24.65000062787533</v>
